--- a/data/derived/MMB_reg_format.xlsx
+++ b/data/derived/MMB_reg_format.xlsx
@@ -1610,7 +1610,7 @@
         <v>3.4284801483154297</v>
       </c>
       <c r="AY2" s="1">
-        <v>3.2856826782226562</v>
+        <v>3.2856826782226563</v>
       </c>
       <c r="AZ2" s="1">
         <v>3.2915754318237305</v>
@@ -1861,7 +1861,7 @@
         <v>-0.088504426181316376</v>
       </c>
       <c r="EF2" s="1">
-        <v>-0.070084653794765472</v>
+        <v>-0.070084653794765473</v>
       </c>
       <c r="EG2" s="1">
         <v>0.7918773889541626</v>
@@ -2037,7 +2037,7 @@
         <v>4.3913068771362305</v>
       </c>
       <c r="AY3" s="1">
-        <v>4.5119400024414062</v>
+        <v>4.5119400024414063</v>
       </c>
       <c r="AZ3" s="1">
         <v>4.5336732864379883</v>
@@ -2136,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="CF3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH3" s="1">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3" s="1">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>-0.12390769273042679</v>
       </c>
       <c r="EC3" s="1">
-        <v>-0.06069677323102951</v>
+        <v>-0.060696773231029511</v>
       </c>
       <c r="ED3" s="1">
         <v>0.48985475301742554</v>
@@ -2298,13 +2298,13 @@
         <v>0.49556022882461548</v>
       </c>
       <c r="EH3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI3" s="1">
         <v>1</v>
       </c>
       <c r="EJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK3" s="1">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>9.9307899290579371e-06</v>
       </c>
       <c r="H4" s="1">
-        <v>-0.96552646160125732</v>
+        <v>-0.96552646160125733</v>
       </c>
       <c r="I4" s="1">
         <v>-0.97340750694274902</v>
@@ -2393,16 +2393,16 @@
         <v>5</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.065119870007038116</v>
+        <v>0.065119870007038117</v>
       </c>
       <c r="AA4" s="1">
         <v>0.18668232858181</v>
       </c>
       <c r="AB4" s="1">
-        <v>-0.81152570247650146</v>
+        <v>-0.81152570247650147</v>
       </c>
       <c r="AC4" s="1">
-        <v>-0.81152570247650146</v>
+        <v>-0.81152570247650147</v>
       </c>
       <c r="AD4" s="1">
         <v>0.063422106206417084</v>
@@ -2411,7 +2411,7 @@
         <v>-0.074480041861534119</v>
       </c>
       <c r="AF4" s="1">
-        <v>-0.21351559460163116</v>
+        <v>-0.21351559460163117</v>
       </c>
       <c r="AG4" s="1">
         <v>-0.07253824919462204</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>-0.96552646160125732</v>
+        <v>-0.96552646160125733</v>
       </c>
       <c r="BJ4" s="1">
         <v>-0.97340750694274902</v>
@@ -2612,7 +2612,7 @@
         <v>0.066457107663154602</v>
       </c>
       <c r="CW4" s="1">
-        <v>-0.96552646160125732</v>
+        <v>-0.96552646160125733</v>
       </c>
       <c r="CX4" s="1">
         <v>-0.97340750694274902</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="DT4" s="1">
-        <v>-0.96552646160125732</v>
+        <v>-0.96552646160125733</v>
       </c>
       <c r="DU4" s="1">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>-0.017958128824830055</v>
       </c>
       <c r="K5" s="1">
-        <v>0.1246674433350563</v>
+        <v>0.12466744333505631</v>
       </c>
       <c r="L5" s="1">
         <v>0.27378201484680176</v>
@@ -3033,7 +3033,7 @@
         <v>220</v>
       </c>
       <c r="CU5" s="1">
-        <v>0.1246674433350563</v>
+        <v>0.12466744333505631</v>
       </c>
       <c r="CV5" s="1">
         <v>0.27378201484680176</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="DF5" s="1">
-        <v>0.1246674433350563</v>
+        <v>0.12466744333505631</v>
       </c>
       <c r="DG5" s="1">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="DP5" s="1">
-        <v>0.1246674433350563</v>
+        <v>0.12466744333505631</v>
       </c>
       <c r="DQ5" s="1">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="1">
-        <v>-0.25118249654769897</v>
+        <v>-0.25118249654769898</v>
       </c>
       <c r="AA6" s="1">
         <v>0.78754639625549316</v>
@@ -3278,7 +3278,7 @@
         <v>-0.81385022401809692</v>
       </c>
       <c r="AK6" s="1">
-        <v>-0.99132752418518066</v>
+        <v>-0.99132752418518067</v>
       </c>
       <c r="AL6" s="1">
         <v>-0.48782444000244141</v>
@@ -3302,7 +3302,7 @@
         <v>-0.81385022401809692</v>
       </c>
       <c r="AS6" s="1">
-        <v>-0.99132752418518066</v>
+        <v>-0.99132752418518067</v>
       </c>
       <c r="AT6" s="1">
         <v>-0.65553271770477295</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="EM6" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="7">
@@ -3687,7 +3687,7 @@
         <v>0.033304154872894287</v>
       </c>
       <c r="AE7" s="1">
-        <v>-0.041623536497354507</v>
+        <v>-0.041623536497354508</v>
       </c>
       <c r="AF7" s="1">
         <v>-0.25810283422470093</v>
@@ -3711,7 +3711,7 @@
         <v>0.033304154872894287</v>
       </c>
       <c r="AM7" s="1">
-        <v>-0.041623536497354507</v>
+        <v>-0.041623536497354508</v>
       </c>
       <c r="AN7" s="1">
         <v>-0.25810283422470093</v>
@@ -3735,7 +3735,7 @@
         <v>0.033304154872894287</v>
       </c>
       <c r="AU7" s="1">
-        <v>-0.041623536497354507</v>
+        <v>-0.041623536497354508</v>
       </c>
       <c r="AV7" s="1">
         <v>-0.25810283422470093</v>
@@ -4105,10 +4105,10 @@
         <v>0.74780994653701782</v>
       </c>
       <c r="AB8" s="1">
-        <v>-0.57025825977325439</v>
+        <v>-0.5702582597732544</v>
       </c>
       <c r="AC8" s="1">
-        <v>-0.57025825977325439</v>
+        <v>-0.5702582597732544</v>
       </c>
       <c r="AD8" s="1">
         <v>0.037224538624286652</v>
@@ -4171,7 +4171,7 @@
         <v>-0.072002619504928589</v>
       </c>
       <c r="AX8" s="1">
-        <v>3.4392163753509521</v>
+        <v>3.4392163753509522</v>
       </c>
       <c r="AY8" s="1">
         <v>4.9898872375488281</v>
@@ -4481,7 +4481,7 @@
         <v>-0.0048643900081515312</v>
       </c>
       <c r="K9" s="1">
-        <v>0.088819213211536407</v>
+        <v>0.088819213211536408</v>
       </c>
       <c r="L9" s="1">
         <v>0.23925803601741791</v>
@@ -4490,7 +4490,7 @@
         <v>0.023238642141222954</v>
       </c>
       <c r="N9" s="1">
-        <v>0.024158505722880363</v>
+        <v>0.024158505722880364</v>
       </c>
       <c r="O9" s="1">
         <v>0.022204803302884102</v>
@@ -4601,7 +4601,7 @@
         <v>1.1107409000396729</v>
       </c>
       <c r="AY9" s="1">
-        <v>1.5840450525283813</v>
+        <v>1.5840450525283814</v>
       </c>
       <c r="AZ9" s="1">
         <v>2.0582969188690186</v>
@@ -4745,7 +4745,7 @@
         <v>260</v>
       </c>
       <c r="CU9" s="1">
-        <v>0.088819213211536407</v>
+        <v>0.088819213211536408</v>
       </c>
       <c r="CV9" s="1">
         <v>0.23925803601741791</v>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="DF9" s="1">
-        <v>0.088819213211536407</v>
+        <v>0.088819213211536408</v>
       </c>
       <c r="DG9" s="1">
         <v>1</v>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="DL9" s="1">
-        <v>0.024158505722880363</v>
+        <v>0.024158505722880364</v>
       </c>
       <c r="DM9" s="1">
         <v>1</v>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="DP9" s="1">
-        <v>0.088819213211536407</v>
+        <v>0.088819213211536408</v>
       </c>
       <c r="DQ9" s="1">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>-0.095839761197566986</v>
       </c>
       <c r="EC10" s="1">
-        <v>-0.0063805654644966125</v>
+        <v>-0.0063805654644966126</v>
       </c>
       <c r="ED10" s="1">
         <v>0.066575348377227783</v>
@@ -5287,7 +5287,7 @@
         <v>-0.095839761197566986</v>
       </c>
       <c r="EF10" s="1">
-        <v>-0.0063805654644966125</v>
+        <v>-0.0063805654644966126</v>
       </c>
       <c r="EG10" s="1">
         <v>0.066575348377227783</v>
@@ -5400,7 +5400,7 @@
         <v>-0.47579941153526306</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.073380544781684875</v>
+        <v>0.073380544781684876</v>
       </c>
       <c r="AE11" s="1">
         <v>-0.16120964288711548</v>
@@ -5418,13 +5418,13 @@
         <v>0.81771111488342285</v>
       </c>
       <c r="AJ11" s="1">
-        <v>-0.47577235102653503</v>
+        <v>-0.47577235102653504</v>
       </c>
       <c r="AK11" s="1">
-        <v>-0.47577235102653503</v>
+        <v>-0.47577235102653504</v>
       </c>
       <c r="AL11" s="1">
-        <v>0.073380544781684875</v>
+        <v>0.073380544781684876</v>
       </c>
       <c r="AM11" s="1">
         <v>-0.16122637689113617</v>
@@ -5442,13 +5442,13 @@
         <v>0.81771111488342285</v>
       </c>
       <c r="AR11" s="1">
-        <v>-0.47577235102653503</v>
+        <v>-0.47577235102653504</v>
       </c>
       <c r="AS11" s="1">
-        <v>-0.47577235102653503</v>
+        <v>-0.47577235102653504</v>
       </c>
       <c r="AT11" s="1">
-        <v>0.073380544781684875</v>
+        <v>0.073380544781684876</v>
       </c>
       <c r="AU11" s="1">
         <v>-0.16122637689113617</v>
@@ -5708,7 +5708,7 @@
         <v>-0.16166287660598755</v>
       </c>
       <c r="ED11" s="1">
-        <v>0.094061002135276794</v>
+        <v>0.094061002135276795</v>
       </c>
       <c r="EE11" s="1">
         <v>-1.7187024354934692</v>
@@ -5717,7 +5717,7 @@
         <v>-0.16166287660598755</v>
       </c>
       <c r="EG11" s="1">
-        <v>0.094061002135276794</v>
+        <v>0.094061002135276795</v>
       </c>
       <c r="EH11" s="1">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>0.023805718868970871</v>
       </c>
       <c r="AE12" s="1">
-        <v>-0.026992317289113998</v>
+        <v>-0.026992317289113999</v>
       </c>
       <c r="AF12" s="1">
         <v>-0.11273538321256638</v>
@@ -5854,7 +5854,7 @@
         <v>0.023805718868970871</v>
       </c>
       <c r="AM12" s="1">
-        <v>-0.026992317289113998</v>
+        <v>-0.026992317289113999</v>
       </c>
       <c r="AN12" s="1">
         <v>-0.098910495638847351</v>
@@ -5878,7 +5878,7 @@
         <v>0.023805718868970871</v>
       </c>
       <c r="AU12" s="1">
-        <v>-0.026992317289113998</v>
+        <v>-0.026992317289113999</v>
       </c>
       <c r="AV12" s="1">
         <v>-0.095158837735652924</v>
@@ -6255,7 +6255,7 @@
         <v>0.054136041551828384</v>
       </c>
       <c r="AE13" s="1">
-        <v>-0.098619073629379272</v>
+        <v>-0.098619073629379273</v>
       </c>
       <c r="AF13" s="1">
         <v>-1.2604613304138184</v>
@@ -6279,7 +6279,7 @@
         <v>0.054136041551828384</v>
       </c>
       <c r="AM13" s="1">
-        <v>-0.098619073629379272</v>
+        <v>-0.098619073629379273</v>
       </c>
       <c r="AN13" s="1">
         <v>-1.2604613304138184</v>
@@ -6303,7 +6303,7 @@
         <v>0.054136041551828384</v>
       </c>
       <c r="AU13" s="1">
-        <v>-0.098619073629379272</v>
+        <v>-0.098619073629379273</v>
       </c>
       <c r="AV13" s="1">
         <v>-1.2604613304138184</v>
@@ -6616,7 +6616,7 @@
         <v>0.0045711509883403778</v>
       </c>
       <c r="K14" s="1">
-        <v>0.16591127216815948</v>
+        <v>0.16591127216815949</v>
       </c>
       <c r="L14" s="1">
         <v>0.025666829198598862</v>
@@ -6664,7 +6664,7 @@
         <v>2.5993757247924805</v>
       </c>
       <c r="AA14" s="1">
-        <v>-0.019453516229987144</v>
+        <v>-0.019453516229987145</v>
       </c>
       <c r="AB14" s="1">
         <v>2.6667468547821045</v>
@@ -6682,7 +6682,7 @@
         <v>-0.1389581710100174</v>
       </c>
       <c r="AG14" s="1">
-        <v>17.507583618164062</v>
+        <v>17.507583618164063</v>
       </c>
       <c r="AH14" s="1">
         <v>3.9366788864135742</v>
@@ -6703,7 +6703,7 @@
         <v>4.0522165298461914</v>
       </c>
       <c r="AN14" s="1">
-        <v>-0.028769256547093391</v>
+        <v>-0.028769256547093392</v>
       </c>
       <c r="AO14" s="1">
         <v>3.9801368713378906</v>
@@ -6880,7 +6880,7 @@
         <v>262</v>
       </c>
       <c r="CU14" s="1">
-        <v>0.16591127216815948</v>
+        <v>0.16591127216815949</v>
       </c>
       <c r="CV14" s="1">
         <v>0.025666829198598862</v>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="DF14" s="1">
-        <v>0.16591127216815948</v>
+        <v>0.16591127216815949</v>
       </c>
       <c r="DG14" s="1">
         <v>1</v>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="DP14" s="1">
-        <v>0.16591127216815948</v>
+        <v>0.16591127216815949</v>
       </c>
       <c r="DQ14" s="1">
         <v>4</v>
@@ -6985,16 +6985,16 @@
         <v>0.82253938913345337</v>
       </c>
       <c r="ED14" s="1">
-        <v>-140.85232543945312</v>
+        <v>-140.85232543945313</v>
       </c>
       <c r="EE14" s="1">
         <v>-0.0057038119994103909</v>
       </c>
       <c r="EF14" s="1">
-        <v>0.78967666625976562</v>
+        <v>0.78967666625976563</v>
       </c>
       <c r="EG14" s="1">
-        <v>-138.44717407226562</v>
+        <v>-138.44717407226563</v>
       </c>
       <c r="EH14" s="1">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.074991919100284576</v>
+        <v>0.074991919100284577</v>
       </c>
       <c r="AA15" s="1">
         <v>0.20615841448307037</v>
@@ -7116,7 +7116,7 @@
         <v>-0.098526656627655029</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.074991919100284576</v>
+        <v>0.074991919100284577</v>
       </c>
       <c r="AI15" s="1">
         <v>0.20615841448307037</v>
@@ -7140,7 +7140,7 @@
         <v>-0.098526656627655029</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.074991919100284576</v>
+        <v>0.074991919100284577</v>
       </c>
       <c r="AQ15" s="1">
         <v>0.20615841448307037</v>
@@ -7465,7 +7465,7 @@
         <v>-0.80145108699798584</v>
       </c>
       <c r="J16" s="1">
-        <v>-0.0048912749625742435</v>
+        <v>-0.0048912749625742436</v>
       </c>
       <c r="K16" s="1">
         <v>0.085421420633792877</v>
@@ -7585,7 +7585,7 @@
         <v>-0.0702529177069664</v>
       </c>
       <c r="AX16" s="1">
-        <v>1.5155020952224731</v>
+        <v>1.5155020952224732</v>
       </c>
       <c r="AY16" s="1">
         <v>2.2186722755432129</v>
@@ -8383,7 +8383,7 @@
         <v>-0.14530786871910095</v>
       </c>
       <c r="AF18" s="1">
-        <v>-1.7435526847839355</v>
+        <v>-1.7435526847839356</v>
       </c>
       <c r="AG18" s="1">
         <v>-0.15185517072677612</v>
@@ -8792,16 +8792,16 @@
         <v>1</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.21723014116287231</v>
+        <v>0.21723014116287232</v>
       </c>
       <c r="AA19" s="1">
         <v>0.48011699318885803</v>
       </c>
       <c r="AB19" s="1">
-        <v>-0.47254329919815063</v>
+        <v>-0.47254329919815064</v>
       </c>
       <c r="AC19" s="1">
-        <v>-0.47254329919815063</v>
+        <v>-0.47254329919815064</v>
       </c>
       <c r="AD19" s="1">
         <v>0.19476193189620972</v>
@@ -8816,16 +8816,16 @@
         <v>-0.68963980674743652</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.21723014116287231</v>
+        <v>0.21723014116287232</v>
       </c>
       <c r="AI19" s="1">
         <v>0.48011699318885803</v>
       </c>
       <c r="AJ19" s="1">
-        <v>-0.47254329919815063</v>
+        <v>-0.47254329919815064</v>
       </c>
       <c r="AK19" s="1">
-        <v>-0.47254329919815063</v>
+        <v>-0.47254329919815064</v>
       </c>
       <c r="AL19" s="1">
         <v>0.19476193189620972</v>
@@ -8840,16 +8840,16 @@
         <v>-0.68963980674743652</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.21723014116287231</v>
+        <v>0.21723014116287232</v>
       </c>
       <c r="AQ19" s="1">
         <v>0.48011699318885803</v>
       </c>
       <c r="AR19" s="1">
-        <v>-0.47254329919815063</v>
+        <v>-0.47254329919815064</v>
       </c>
       <c r="AS19" s="1">
-        <v>-0.47254329919815063</v>
+        <v>-0.47254329919815064</v>
       </c>
       <c r="AT19" s="1">
         <v>0.19476193189620972</v>
@@ -9104,7 +9104,7 @@
         <v>-1.016027569770813</v>
       </c>
       <c r="DZ19" s="1">
-        <v>-0.45970419049263</v>
+        <v>-0.45970419049263001</v>
       </c>
       <c r="EA19" s="1">
         <v>0.45245251059532166</v>
@@ -9113,7 +9113,7 @@
         <v>-1.016027569770813</v>
       </c>
       <c r="EC19" s="1">
-        <v>-0.45970419049263</v>
+        <v>-0.45970419049263001</v>
       </c>
       <c r="ED19" s="1">
         <v>0.45245251059532166</v>
@@ -9122,7 +9122,7 @@
         <v>-1.016027569770813</v>
       </c>
       <c r="EF19" s="1">
-        <v>-0.45970419049263</v>
+        <v>-0.45970419049263001</v>
       </c>
       <c r="EG19" s="1">
         <v>0.45245251059532166</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="EM20" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="21">
@@ -9602,7 +9602,7 @@
         <v>-0.92829936742782593</v>
       </c>
       <c r="J21" s="1">
-        <v>-0.0081325098872184753</v>
+        <v>-0.0081325098872184754</v>
       </c>
       <c r="K21" s="1">
         <v>0.03093336895108223</v>
@@ -9653,7 +9653,7 @@
         <v>0.024596666917204857</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.1976478099822998</v>
+        <v>0.19764780998229981</v>
       </c>
       <c r="AB21" s="1">
         <v>-0.85955929756164551</v>
@@ -9662,7 +9662,7 @@
         <v>-0.86291426420211792</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.02774452231824398</v>
+        <v>0.027744522318243981</v>
       </c>
       <c r="AE21" s="1">
         <v>-0.026607096195220947</v>
@@ -10026,7 +10026,7 @@
         <v>-0.0033216578885912895</v>
       </c>
       <c r="K22" s="1">
-        <v>0.071521125733852386</v>
+        <v>0.071521125733852387</v>
       </c>
       <c r="L22" s="1">
         <v>0.20924633741378784</v>
@@ -10290,7 +10290,7 @@
         <v>263</v>
       </c>
       <c r="CU22" s="1">
-        <v>0.071521125733852386</v>
+        <v>0.071521125733852387</v>
       </c>
       <c r="CV22" s="1">
         <v>0.20924633741378784</v>
@@ -10323,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="DF22" s="1">
-        <v>0.071521125733852386</v>
+        <v>0.071521125733852387</v>
       </c>
       <c r="DG22" s="1">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="DP22" s="1">
-        <v>0.071521125733852386</v>
+        <v>0.071521125733852387</v>
       </c>
       <c r="DQ22" s="1">
         <v>1</v>
@@ -11001,7 +11001,7 @@
         <v>-0.56990116834640503</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.75572431087493896</v>
+        <v>0.75572431087493897</v>
       </c>
       <c r="AY24" s="1">
         <v>0.71467190980911255</v>
@@ -11234,7 +11234,7 @@
         <v>0.049387101083993912</v>
       </c>
       <c r="DY24" s="1">
-        <v>-0.15413284301757812</v>
+        <v>-0.15413284301757813</v>
       </c>
       <c r="DZ24" s="1">
         <v>-0.77577763795852661</v>
@@ -11252,7 +11252,7 @@
         <v>6.5588412284851074</v>
       </c>
       <c r="EE24" s="1">
-        <v>-0.15531075000762939</v>
+        <v>-0.1553107500076294</v>
       </c>
       <c r="EF24" s="1">
         <v>-1.0652234554290771</v>
@@ -11679,7 +11679,7 @@
         <v>0.061003949493169785</v>
       </c>
       <c r="EE25" s="1">
-        <v>-2.9043037891387939</v>
+        <v>-2.904303789138794</v>
       </c>
       <c r="EF25" s="1">
         <v>-0.17036344110965729</v>
@@ -12226,7 +12226,7 @@
         <v>-0.62543463706970215</v>
       </c>
       <c r="AD27" s="1">
-        <v>0.19209969043731689</v>
+        <v>0.1920996904373169</v>
       </c>
       <c r="AE27" s="1">
         <v>-1.2271298170089722</v>
@@ -12250,7 +12250,7 @@
         <v>-0.62543463706970215</v>
       </c>
       <c r="AL27" s="1">
-        <v>0.19209969043731689</v>
+        <v>0.1920996904373169</v>
       </c>
       <c r="AM27" s="1">
         <v>-1.2271298170089722</v>
@@ -12274,7 +12274,7 @@
         <v>-0.62543463706970215</v>
       </c>
       <c r="AT27" s="1">
-        <v>0.19209969043731689</v>
+        <v>0.1920996904373169</v>
       </c>
       <c r="AU27" s="1">
         <v>-1.2271298170089722</v>
@@ -12644,7 +12644,7 @@
         <v>0.16562084853649139</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.086715653538703918</v>
+        <v>0.086715653538703919</v>
       </c>
       <c r="AB28" s="1">
         <v>-0.73138225078582764</v>
@@ -12668,7 +12668,7 @@
         <v>0.16562084853649139</v>
       </c>
       <c r="AI28" s="1">
-        <v>0.086715653538703918</v>
+        <v>0.086715653538703919</v>
       </c>
       <c r="AJ28" s="1">
         <v>-0.73138225078582764</v>
@@ -12692,7 +12692,7 @@
         <v>0.16562084853649139</v>
       </c>
       <c r="AQ28" s="1">
-        <v>0.086715653538703918</v>
+        <v>0.086715653538703919</v>
       </c>
       <c r="AR28" s="1">
         <v>-0.73138225078582764</v>
@@ -13014,7 +13014,7 @@
         <v>-0.072453171014785767</v>
       </c>
       <c r="H29" s="1">
-        <v>-0.19697940349578857</v>
+        <v>-0.19697940349578858</v>
       </c>
       <c r="I29" s="1">
         <v>-0.18693879246711731</v>
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="BI29" s="1">
-        <v>-0.19697940349578857</v>
+        <v>-0.19697940349578858</v>
       </c>
       <c r="BJ29" s="1">
         <v>-0.18693879246711731</v>
@@ -13289,7 +13289,7 @@
         <v>1.5587548017501831</v>
       </c>
       <c r="CW29" s="1">
-        <v>-0.19697940349578857</v>
+        <v>-0.19697940349578858</v>
       </c>
       <c r="CX29" s="1">
         <v>-0.18693879246711731</v>
@@ -13358,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="DT29" s="1">
-        <v>-0.19697940349578857</v>
+        <v>-0.19697940349578858</v>
       </c>
       <c r="DU29" s="1">
         <v>1</v>
@@ -13877,7 +13877,7 @@
         <v>-0.015388758853077888</v>
       </c>
       <c r="K31" s="1">
-        <v>0.02978990226984024</v>
+        <v>0.029789902269840241</v>
       </c>
       <c r="L31" s="1">
         <v>0.10086870938539505</v>
@@ -14137,7 +14137,7 @@
         <v>220</v>
       </c>
       <c r="CU31" s="1">
-        <v>0.02978990226984024</v>
+        <v>0.029789902269840241</v>
       </c>
       <c r="CV31" s="1">
         <v>0.10086870938539505</v>
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="DF31" s="1">
-        <v>0.02978990226984024</v>
+        <v>0.029789902269840241</v>
       </c>
       <c r="DG31" s="1">
         <v>1</v>
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>-0.0055901710875332355</v>
+        <v>-0.0055901710875332356</v>
       </c>
       <c r="G32" s="1">
         <v>-0.005387171171605587</v>
@@ -14298,7 +14298,7 @@
         <v>-0.91172724962234497</v>
       </c>
       <c r="I32" s="1">
-        <v>-0.90613704919815063</v>
+        <v>-0.90613704919815064</v>
       </c>
       <c r="J32" s="1">
         <v>-0.0018244369421154261</v>
@@ -14457,7 +14457,7 @@
         <v>-0.91172724962234497</v>
       </c>
       <c r="BJ32" s="1">
-        <v>-0.90613704919815063</v>
+        <v>-0.90613704919815064</v>
       </c>
       <c r="BK32" s="1">
         <v>1</v>
@@ -14573,7 +14573,7 @@
         <v>-0.91172724962234497</v>
       </c>
       <c r="CX32" s="1">
-        <v>-0.90613704919815063</v>
+        <v>-0.90613704919815064</v>
       </c>
       <c r="CY32" s="1">
         <v>0.010303273797035217</v>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="DV32" s="1">
-        <v>-0.90613704919815063</v>
+        <v>-0.90613704919815064</v>
       </c>
       <c r="DW32" s="1">
         <v>1</v>
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>-0.0079404758289456367</v>
+        <v>-0.0079404758289456368</v>
       </c>
       <c r="G33" s="1">
         <v>-0.041487615555524826</v>
@@ -14848,13 +14848,13 @@
         <v>-0.11395147442817688</v>
       </c>
       <c r="AX33" s="1">
-        <v>3.8911817073822021</v>
+        <v>3.8911817073822022</v>
       </c>
       <c r="AY33" s="1">
         <v>5.6991400718688965</v>
       </c>
       <c r="AZ33" s="1">
-        <v>7.5107178688049316</v>
+        <v>7.5107178688049317</v>
       </c>
       <c r="BA33" s="1">
         <v>0</v>
@@ -15149,7 +15149,7 @@
         <v>-0.0019801359158009291</v>
       </c>
       <c r="H34" s="1">
-        <v>-0.93880832195281982</v>
+        <v>-0.93880832195281983</v>
       </c>
       <c r="I34" s="1">
         <v>-0.93275851011276245</v>
@@ -15218,7 +15218,7 @@
         <v>0.0062946733087301254</v>
       </c>
       <c r="AE34" s="1">
-        <v>-0.0023479878436774015</v>
+        <v>-0.0023479878436774016</v>
       </c>
       <c r="AF34" s="1">
         <v>-0.24422682821750641</v>
@@ -15239,7 +15239,7 @@
         <v>-0.84679156541824341</v>
       </c>
       <c r="AL34" s="1">
-        <v>-0.042465802282094955</v>
+        <v>-0.042465802282094956</v>
       </c>
       <c r="AM34" s="1">
         <v>0.055595777928829193</v>
@@ -15248,7 +15248,7 @@
         <v>-0.29913753271102905</v>
       </c>
       <c r="AO34" s="1">
-        <v>0.051958631724119186</v>
+        <v>0.051958631724119187</v>
       </c>
       <c r="AP34" s="1">
         <v>-0.077539607882499695</v>
@@ -15308,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="BI34" s="1">
-        <v>-0.93880832195281982</v>
+        <v>-0.93880832195281983</v>
       </c>
       <c r="BJ34" s="1">
         <v>-0.93275851011276245</v>
@@ -15424,7 +15424,7 @@
         <v>0.082197174429893494</v>
       </c>
       <c r="CW34" s="1">
-        <v>-0.93880832195281982</v>
+        <v>-0.93880832195281983</v>
       </c>
       <c r="CX34" s="1">
         <v>-0.93275851011276245</v>
@@ -15493,7 +15493,7 @@
         <v>1</v>
       </c>
       <c r="DT34" s="1">
-        <v>-0.93880832195281982</v>
+        <v>-0.93880832195281983</v>
       </c>
       <c r="DU34" s="1">
         <v>1</v>
@@ -15666,7 +15666,7 @@
         <v>-1.0155668258666992</v>
       </c>
       <c r="AL35" s="1">
-        <v>4.4018099983143127e-15</v>
+        <v>4.4018099983143128e-15</v>
       </c>
       <c r="AM35" s="1">
         <v>-4.2050408565353498e-15</v>
@@ -15699,7 +15699,7 @@
         <v>0.030656453222036362</v>
       </c>
       <c r="AW35" s="1">
-        <v>-4.777046440980915e-15</v>
+        <v>-4.7770464409809151e-15</v>
       </c>
       <c r="AX35" s="1">
         <v>-0.6744348406791687</v>
@@ -16004,7 +16004,7 @@
         <v>-0.0011167450575158</v>
       </c>
       <c r="G36" s="1">
-        <v>-0.00041840600897558033</v>
+        <v>-0.00041840600897558034</v>
       </c>
       <c r="H36" s="1">
         <v>-0.97199904918670654</v>
@@ -16076,7 +16076,7 @@
         <v>0.014119178988039494</v>
       </c>
       <c r="AE36" s="1">
-        <v>-0.0021574730053544044</v>
+        <v>-0.0021574730053544045</v>
       </c>
       <c r="AF36" s="1">
         <v>-0.15523785352706909</v>
@@ -16391,7 +16391,7 @@
         <v>-0.1559053510427475</v>
       </c>
       <c r="EF36" s="1">
-        <v>0.0076361303217709064</v>
+        <v>0.0076361303217709065</v>
       </c>
       <c r="EG36" s="1">
         <v>-0.048979267477989197</v>
@@ -16447,7 +16447,7 @@
         <v>-3.1700001272838563e-05</v>
       </c>
       <c r="K37" s="1">
-        <v>0.00035096699139103293</v>
+        <v>0.00035096699139103294</v>
       </c>
       <c r="L37" s="1">
         <v>0.087288424372673035</v>
@@ -16711,7 +16711,7 @@
         <v>267</v>
       </c>
       <c r="CU37" s="1">
-        <v>0.00035096699139103293</v>
+        <v>0.00035096699139103294</v>
       </c>
       <c r="CV37" s="1">
         <v>0.087288424372673035</v>
@@ -16744,7 +16744,7 @@
         <v>3</v>
       </c>
       <c r="DF37" s="1">
-        <v>0.00035096699139103293</v>
+        <v>0.00035096699139103294</v>
       </c>
       <c r="DG37" s="1">
         <v>1</v>
@@ -16774,7 +16774,7 @@
         <v>3</v>
       </c>
       <c r="DP37" s="1">
-        <v>0.00035096699139103293</v>
+        <v>0.00035096699139103294</v>
       </c>
       <c r="DQ37" s="1">
         <v>1</v>
@@ -17399,7 +17399,7 @@
         <v>-2.2806942462921143</v>
       </c>
       <c r="AO39" s="1">
-        <v>1.3677592277526855</v>
+        <v>1.3677592277526856</v>
       </c>
       <c r="AP39" s="1">
         <v>-1.2565730810165405</v>
@@ -17669,7 +17669,7 @@
         <v>0.37475502490997314</v>
       </c>
       <c r="EA39" s="1">
-        <v>-0.41112744808197021</v>
+        <v>-0.41112744808197022</v>
       </c>
       <c r="EB39" s="1">
         <v>-1.6393635272979736</v>
@@ -17836,7 +17836,7 @@
         <v>0.14232094585895538</v>
       </c>
       <c r="AQ40" s="1">
-        <v>0.021218035370111465</v>
+        <v>0.021218035370111466</v>
       </c>
       <c r="AR40" s="1">
         <v>-3.337367057800293</v>
@@ -18614,7 +18614,7 @@
         <v>0.013932712376117706</v>
       </c>
       <c r="O42" s="1">
-        <v>0.0040793819352984428</v>
+        <v>0.0040793819352984429</v>
       </c>
       <c r="P42" s="1">
         <v>7</v>
@@ -18878,7 +18878,7 @@
         <v>-0.98465371131896973</v>
       </c>
       <c r="CY42" s="1">
-        <v>0.0040793819352984428</v>
+        <v>0.0040793819352984429</v>
       </c>
       <c r="CZ42" s="1">
         <v>1</v>
@@ -18923,7 +18923,7 @@
         <v>3</v>
       </c>
       <c r="DN42" s="1">
-        <v>0.0040793819352984428</v>
+        <v>0.0040793819352984429</v>
       </c>
       <c r="DO42" s="1">
         <v>7</v>
@@ -19393,7 +19393,7 @@
         <v>0.099901117384433746</v>
       </c>
       <c r="EA43" s="1">
-        <v>-0.40082854032516479</v>
+        <v>-0.4008285403251648</v>
       </c>
       <c r="EB43" s="1">
         <v>-0.37438309192657471</v>
@@ -19509,7 +19509,7 @@
         <v>99</v>
       </c>
       <c r="Z44" s="1">
-        <v>-0.48958659172058105</v>
+        <v>-0.48958659172058106</v>
       </c>
       <c r="AA44" s="1">
         <v>0.84180158376693726</v>
@@ -19551,7 +19551,7 @@
         <v>1.2514921426773071</v>
       </c>
       <c r="AN44" s="1">
-        <v>-1.8129498958587646</v>
+        <v>-1.8129498958587647</v>
       </c>
       <c r="AO44" s="1">
         <v>1.2201974391937256</v>
@@ -19584,7 +19584,7 @@
         <v>3.7168669700622559</v>
       </c>
       <c r="AY44" s="1">
-        <v>5.1259522438049316</v>
+        <v>5.1259522438049317</v>
       </c>
       <c r="AZ44" s="1">
         <v>5.3685407638549805</v>
@@ -20015,7 +20015,7 @@
         <v>2.3589000701904297</v>
       </c>
       <c r="AY45" s="1">
-        <v>4.371619701385498</v>
+        <v>4.3716197013854981</v>
       </c>
       <c r="AZ45" s="1">
         <v>6.3883686065673828</v>
@@ -20261,7 +20261,7 @@
         <v>-0.10669802874326706</v>
       </c>
       <c r="EC45" s="1">
-        <v>-0.0053627449087798595</v>
+        <v>-0.0053627449087798596</v>
       </c>
       <c r="ED45" s="1">
         <v>0.050260953605175018</v>
@@ -20270,7 +20270,7 @@
         <v>-0.10669802874326706</v>
       </c>
       <c r="EF45" s="1">
-        <v>-0.0053627449087798595</v>
+        <v>-0.0053627449087798596</v>
       </c>
       <c r="EG45" s="1">
         <v>0.050260953605175018</v>
@@ -20314,7 +20314,7 @@
         <v>-0.0032621149439364672</v>
       </c>
       <c r="G46" s="1">
-        <v>0.0019843040499836206</v>
+        <v>0.0019843040499836207</v>
       </c>
       <c r="H46" s="1">
         <v>-0.9949873685836792</v>
@@ -20332,7 +20332,7 @@
         <v>0.033888742327690125</v>
       </c>
       <c r="M46" s="1">
-        <v>0.018461549654603004</v>
+        <v>0.018461549654603005</v>
       </c>
       <c r="N46" s="1">
         <v>0.017784494906663895</v>
@@ -20443,7 +20443,7 @@
         <v>-0.016205513849854469</v>
       </c>
       <c r="AX46" s="1">
-        <v>6.5310134887695312</v>
+        <v>6.5310134887695313</v>
       </c>
       <c r="AY46" s="1">
         <v>11.678807258605957</v>
@@ -20635,7 +20635,7 @@
         <v>9</v>
       </c>
       <c r="DJ46" s="1">
-        <v>0.018461549654603004</v>
+        <v>0.018461549654603005</v>
       </c>
       <c r="DK46" s="1">
         <v>10</v>
@@ -21153,7 +21153,7 @@
         <v>1</v>
       </c>
       <c r="EM47" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="48">
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="EM48" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="49">
@@ -21604,7 +21604,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>-4.0399998397333547e-05</v>
+        <v>-4.0399998397333548e-05</v>
       </c>
       <c r="G49" s="1">
         <v>-0.0008492780034430325</v>
@@ -21631,7 +21631,7 @@
         <v>0.0053567364811897278</v>
       </c>
       <c r="O49" s="1">
-        <v>0.0036888120230287313</v>
+        <v>0.0036888120230287314</v>
       </c>
       <c r="P49" s="1">
         <v>60.5</v>
@@ -21664,7 +21664,7 @@
         <v>12</v>
       </c>
       <c r="Z49" s="1">
-        <v>0.058964118361473083</v>
+        <v>0.058964118361473084</v>
       </c>
       <c r="AA49" s="1">
         <v>0.097856223583221436</v>
@@ -21685,7 +21685,7 @@
         <v>-0.10530179738998413</v>
       </c>
       <c r="AG49" s="1">
-        <v>-0.059141505509614944</v>
+        <v>-0.059141505509614945</v>
       </c>
       <c r="AH49" s="1">
         <v>0.081696473062038422</v>
@@ -21709,7 +21709,7 @@
         <v>-0.10530179738998413</v>
       </c>
       <c r="AO49" s="1">
-        <v>-0.08855149894952774</v>
+        <v>-0.088551498949527741</v>
       </c>
       <c r="AP49" s="1">
         <v>0.082736648619174957</v>
@@ -21895,7 +21895,7 @@
         <v>-1.001024603843689</v>
       </c>
       <c r="CY49" s="1">
-        <v>0.0036888120230287313</v>
+        <v>0.0036888120230287314</v>
       </c>
       <c r="CZ49" s="1">
         <v>10</v>
@@ -21940,7 +21940,7 @@
         <v>12</v>
       </c>
       <c r="DN49" s="1">
-        <v>0.0036888120230287313</v>
+        <v>0.0036888120230287314</v>
       </c>
       <c r="DO49" s="1">
         <v>10</v>
@@ -21970,7 +21970,7 @@
         <v>12</v>
       </c>
       <c r="DX49" s="1">
-        <v>0.0036888120230287313</v>
+        <v>0.0036888120230287314</v>
       </c>
       <c r="DY49" s="1">
         <v>-0.11265553534030914</v>
@@ -22404,7 +22404,7 @@
         <v>-0.00039411100442521274</v>
       </c>
       <c r="DY50" s="1">
-        <v>-0.080025456845760345</v>
+        <v>-0.080025456845760346</v>
       </c>
       <c r="DZ50" s="1">
         <v>0.0047932029701769352</v>
@@ -22413,7 +22413,7 @@
         <v>-0.059895977377891541</v>
       </c>
       <c r="EB50" s="1">
-        <v>-0.080025456845760345</v>
+        <v>-0.080025456845760346</v>
       </c>
       <c r="EC50" s="1">
         <v>0.0059930551797151566</v>
@@ -22422,7 +22422,7 @@
         <v>-0.07488936185836792</v>
       </c>
       <c r="EE50" s="1">
-        <v>-0.080025456845760345</v>
+        <v>-0.080025456845760346</v>
       </c>
       <c r="EF50" s="1">
         <v>0.0059930551797151566</v>
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>-0.00052736501675099134</v>
+        <v>-0.00052736501675099135</v>
       </c>
       <c r="G51" s="1">
         <v>-0.0063056228682398796</v>
@@ -22490,7 +22490,7 @@
         <v>0.030356135219335556</v>
       </c>
       <c r="N51" s="1">
-        <v>0.019411046057939529</v>
+        <v>0.01941104605793953</v>
       </c>
       <c r="O51" s="1">
         <v>0.011550876311957836</v>
@@ -22541,7 +22541,7 @@
         <v>0.12859408557415009</v>
       </c>
       <c r="AE51" s="1">
-        <v>-0.1511046290397644</v>
+        <v>-0.15110462903976441</v>
       </c>
       <c r="AF51" s="1">
         <v>-0.49898487329483032</v>
@@ -22790,7 +22790,7 @@
         <v>7</v>
       </c>
       <c r="DL51" s="1">
-        <v>0.019411046057939529</v>
+        <v>0.01941104605793953</v>
       </c>
       <c r="DM51" s="1">
         <v>8</v>
@@ -22894,7 +22894,7 @@
         <v>-0.00014078100502956659</v>
       </c>
       <c r="G52" s="1">
-        <v>-0.00016938999760895967</v>
+        <v>-0.00016938999760895968</v>
       </c>
       <c r="H52" s="1">
         <v>-0.96444040536880493</v>
@@ -23385,7 +23385,7 @@
         <v>0.017672104761004448</v>
       </c>
       <c r="AA53" s="1">
-        <v>0.031738188117742538</v>
+        <v>0.031738188117742539</v>
       </c>
       <c r="AB53" s="1">
         <v>-0.95851016044616699</v>
@@ -23409,7 +23409,7 @@
         <v>0.022096084430813789</v>
       </c>
       <c r="AI53" s="1">
-        <v>0.031738188117742538</v>
+        <v>0.031738188117742539</v>
       </c>
       <c r="AJ53" s="1">
         <v>-0.95378375053405762</v>
@@ -23433,7 +23433,7 @@
         <v>0.025259979069232941</v>
       </c>
       <c r="AQ53" s="1">
-        <v>0.031738188117742538</v>
+        <v>0.031738188117742539</v>
       </c>
       <c r="AR53" s="1">
         <v>-0.95079773664474487</v>
@@ -23840,7 +23840,7 @@
         <v>-0.93221408128738403</v>
       </c>
       <c r="AK54" s="1">
-        <v>-0.93294817209243774</v>
+        <v>-0.93294817209243775</v>
       </c>
       <c r="AL54" s="1">
         <v>0.033155690878629684</v>
@@ -24265,7 +24265,7 @@
         <v>0.067407593131065369</v>
       </c>
       <c r="AI55" s="1">
-        <v>0.93171608448028564</v>
+        <v>0.93171608448028565</v>
       </c>
       <c r="AJ55" s="1">
         <v>-0.56530070304870605</v>
@@ -24672,7 +24672,7 @@
         <v>0.095681197941303253</v>
       </c>
       <c r="AA56" s="1">
-        <v>0.25239944458007812</v>
+        <v>0.25239944458007813</v>
       </c>
       <c r="AB56" s="1">
         <v>-0.73029136657714844</v>
@@ -24696,7 +24696,7 @@
         <v>0.095681197941303253</v>
       </c>
       <c r="AI56" s="1">
-        <v>0.25239944458007812</v>
+        <v>0.25239944458007813</v>
       </c>
       <c r="AJ56" s="1">
         <v>-0.73029136657714844</v>
@@ -24720,7 +24720,7 @@
         <v>0.095681197941303253</v>
       </c>
       <c r="AQ56" s="1">
-        <v>0.25239944458007812</v>
+        <v>0.25239944458007813</v>
       </c>
       <c r="AR56" s="1">
         <v>-0.73029136657714844</v>
@@ -25106,10 +25106,10 @@
         <v>0.10317008197307587</v>
       </c>
       <c r="AB57" s="1">
-        <v>-0.86406856775283813</v>
+        <v>-0.86406856775283814</v>
       </c>
       <c r="AC57" s="1">
-        <v>-0.86406856775283813</v>
+        <v>-0.86406856775283814</v>
       </c>
       <c r="AD57" s="1">
         <v>0.056289982050657272</v>
@@ -25130,10 +25130,10 @@
         <v>0.10317008197307587</v>
       </c>
       <c r="AJ57" s="1">
-        <v>-0.86406856775283813</v>
+        <v>-0.86406856775283814</v>
       </c>
       <c r="AK57" s="1">
-        <v>-0.86406856775283813</v>
+        <v>-0.86406856775283814</v>
       </c>
       <c r="AL57" s="1">
         <v>0.056289982050657272</v>
@@ -25154,10 +25154,10 @@
         <v>0.10317008197307587</v>
       </c>
       <c r="AR57" s="1">
-        <v>-0.86406856775283813</v>
+        <v>-0.86406856775283814</v>
       </c>
       <c r="AS57" s="1">
-        <v>-0.86406856775283813</v>
+        <v>-0.86406856775283814</v>
       </c>
       <c r="AT57" s="1">
         <v>0.056289982050657272</v>
@@ -25178,7 +25178,7 @@
         <v>0.53193670511245728</v>
       </c>
       <c r="AZ57" s="1">
-        <v>0.60306167602539062</v>
+        <v>0.60306167602539063</v>
       </c>
       <c r="BA57" s="1">
         <v>0</v>
@@ -25477,7 +25477,7 @@
         <v>-0.00021723999816458672</v>
       </c>
       <c r="H58" s="1">
-        <v>-0.99117428064346313</v>
+        <v>-0.99117428064346314</v>
       </c>
       <c r="I58" s="1">
         <v>-0.99206417798995972</v>
@@ -25534,7 +25534,7 @@
         <v>-0.0046745939180254936</v>
       </c>
       <c r="AA58" s="1">
-        <v>0.075479999184608459</v>
+        <v>0.07547999918460846</v>
       </c>
       <c r="AB58" s="1">
         <v>-0.96383017301559448</v>
@@ -25558,7 +25558,7 @@
         <v>-0.0065891081467270851</v>
       </c>
       <c r="AI58" s="1">
-        <v>0.075479999184608459</v>
+        <v>0.07547999918460846</v>
       </c>
       <c r="AJ58" s="1">
         <v>-0.96383017301559448</v>
@@ -25582,7 +25582,7 @@
         <v>-0.0066172541119158268</v>
       </c>
       <c r="AQ58" s="1">
-        <v>0.075479999184608459</v>
+        <v>0.07547999918460846</v>
       </c>
       <c r="AR58" s="1">
         <v>-0.96383017301559448</v>
@@ -25636,7 +25636,7 @@
         <v>2</v>
       </c>
       <c r="BI58" s="1">
-        <v>-0.99117428064346313</v>
+        <v>-0.99117428064346314</v>
       </c>
       <c r="BJ58" s="1">
         <v>-0.99206417798995972</v>
@@ -25756,7 +25756,7 @@
         <v>0.016631707549095154</v>
       </c>
       <c r="CW58" s="1">
-        <v>-0.99117428064346313</v>
+        <v>-0.99117428064346314</v>
       </c>
       <c r="CX58" s="1">
         <v>-0.99206417798995972</v>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="DT58" s="1">
-        <v>-0.99117428064346313</v>
+        <v>-0.99117428064346314</v>
       </c>
       <c r="DU58" s="1">
         <v>1</v>
@@ -26034,10 +26034,10 @@
         <v>-0.053436215966939926</v>
       </c>
       <c r="AX59" s="1">
-        <v>2.2798986434936523</v>
+        <v>2.2798986434936524</v>
       </c>
       <c r="AY59" s="1">
-        <v>4.0463171005249023</v>
+        <v>4.0463171005249024</v>
       </c>
       <c r="AZ59" s="1">
         <v>5.763033390045166</v>
@@ -26295,7 +26295,7 @@
         <v>-0.055839136242866516</v>
       </c>
       <c r="EG59" s="1">
-        <v>0.25510969758033752</v>
+        <v>0.25510969758033753</v>
       </c>
       <c r="EH59" s="1">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>0.073060639202594757</v>
       </c>
       <c r="AB60" s="1">
-        <v>-0.69345462322235107</v>
+        <v>-0.69345462322235108</v>
       </c>
       <c r="AC60" s="1">
         <v>-0.69175118207931519</v>
@@ -26423,7 +26423,7 @@
         <v>0.073060639202594757</v>
       </c>
       <c r="AJ60" s="1">
-        <v>-0.69345462322235107</v>
+        <v>-0.69345462322235108</v>
       </c>
       <c r="AK60" s="1">
         <v>-0.69175118207931519</v>
@@ -26447,7 +26447,7 @@
         <v>0.073060639202594757</v>
       </c>
       <c r="AR60" s="1">
-        <v>-0.69345462322235107</v>
+        <v>-0.69345462322235108</v>
       </c>
       <c r="AS60" s="1">
         <v>-0.69175118207931519</v>
@@ -26767,7 +26767,7 @@
         <v>-0.0004132899921387434</v>
       </c>
       <c r="G61" s="1">
-        <v>0.000315140001475811</v>
+        <v>0.00031514000147581101</v>
       </c>
       <c r="H61" s="1">
         <v>-0.99397552013397217</v>
@@ -26857,7 +26857,7 @@
         <v>-0.97216427326202393</v>
       </c>
       <c r="AK61" s="1">
-        <v>-0.97521126270294189</v>
+        <v>-0.9752112627029419</v>
       </c>
       <c r="AL61" s="1">
         <v>-0.014501872472465038</v>
@@ -26881,7 +26881,7 @@
         <v>-0.97216427326202393</v>
       </c>
       <c r="AS61" s="1">
-        <v>-0.97521126270294189</v>
+        <v>-0.9752112627029419</v>
       </c>
       <c r="AT61" s="1">
         <v>-0.021872913464903831</v>
@@ -26902,7 +26902,7 @@
         <v>38.190162658691406</v>
       </c>
       <c r="AZ61" s="1">
-        <v>64.507522583007812</v>
+        <v>64.507522583007813</v>
       </c>
       <c r="BA61" s="1">
         <v>1</v>
@@ -27151,7 +27151,7 @@
         <v>-0.18778096139431</v>
       </c>
       <c r="EE61" s="1">
-        <v>-0.089164689183235168</v>
+        <v>-0.089164689183235169</v>
       </c>
       <c r="EF61" s="1">
         <v>0.022966012358665466</v>
@@ -27201,7 +27201,7 @@
         <v>-0.011903241276741028</v>
       </c>
       <c r="H62" s="1">
-        <v>-0.97445130348205566</v>
+        <v>-0.97445130348205567</v>
       </c>
       <c r="I62" s="1">
         <v>-0.97760289907455444</v>
@@ -27360,7 +27360,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="1">
-        <v>-0.97445130348205566</v>
+        <v>-0.97445130348205567</v>
       </c>
       <c r="BJ62" s="1">
         <v>-0.97760289907455444</v>
@@ -27480,7 +27480,7 @@
         <v>0.050180025398731232</v>
       </c>
       <c r="CW62" s="1">
-        <v>-0.97445130348205566</v>
+        <v>-0.97445130348205567</v>
       </c>
       <c r="CX62" s="1">
         <v>-0.97760289907455444</v>
@@ -27549,7 +27549,7 @@
         <v>1</v>
       </c>
       <c r="DT62" s="1">
-        <v>-0.97445130348205566</v>
+        <v>-0.97445130348205567</v>
       </c>
       <c r="DU62" s="1">
         <v>1</v>
@@ -27576,7 +27576,7 @@
         <v>-0.15003792941570282</v>
       </c>
       <c r="EC62" s="1">
-        <v>-0.40580925345420837</v>
+        <v>-0.40580925345420838</v>
       </c>
       <c r="ED62" s="1">
         <v>2.7047111988067627</v>
@@ -27629,7 +27629,7 @@
         <v>-0.022047849372029305</v>
       </c>
       <c r="G63" s="1">
-        <v>5.9200001487624831e-06</v>
+        <v>5.9200001487624832e-06</v>
       </c>
       <c r="H63" s="1">
         <v>-0.96952944993972778</v>
@@ -27653,7 +27653,7 @@
         <v>1.1000010999850929e-06</v>
       </c>
       <c r="O63" s="1">
-        <v>0.0057097082026302814</v>
+        <v>0.0057097082026302815</v>
       </c>
       <c r="P63" s="1">
         <v>2</v>
@@ -27917,7 +27917,7 @@
         <v>-0.94748157262802124</v>
       </c>
       <c r="CY63" s="1">
-        <v>0.0057097082026302814</v>
+        <v>0.0057097082026302815</v>
       </c>
       <c r="CZ63" s="1">
         <v>1</v>
@@ -27962,7 +27962,7 @@
         <v>1</v>
       </c>
       <c r="DN63" s="1">
-        <v>0.0057097082026302814</v>
+        <v>0.0057097082026302815</v>
       </c>
       <c r="DO63" s="1">
         <v>1</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="DX63" s="1">
-        <v>0.0057097082026302814</v>
+        <v>0.0057097082026302815</v>
       </c>
       <c r="DY63" s="1">
         <v>-0.048325520008802414</v>
@@ -28117,7 +28117,7 @@
         <v>6</v>
       </c>
       <c r="Z64" s="1">
-        <v>0.15367256104946136</v>
+        <v>0.15367256104946137</v>
       </c>
       <c r="AA64" s="1">
         <v>0.69417011737823486</v>
@@ -28141,7 +28141,7 @@
         <v>-1.5491036176681519</v>
       </c>
       <c r="AH64" s="1">
-        <v>0.15367256104946136</v>
+        <v>0.15367256104946137</v>
       </c>
       <c r="AI64" s="1">
         <v>0.69417011737823486</v>
@@ -28165,7 +28165,7 @@
         <v>-4.1008901596069336</v>
       </c>
       <c r="AP64" s="1">
-        <v>0.15367256104946136</v>
+        <v>0.15367256104946137</v>
       </c>
       <c r="AQ64" s="1">
         <v>0.69417011737823486</v>
@@ -28273,7 +28273,7 @@
         <v>0</v>
       </c>
       <c r="BZ64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA64" s="1">
         <v>0</v>
@@ -28291,10 +28291,10 @@
         <v>0</v>
       </c>
       <c r="CF64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH64" s="1">
         <v>0</v>
@@ -28303,10 +28303,10 @@
         <v>0</v>
       </c>
       <c r="CJ64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL64" s="1">
         <v>0</v>
@@ -28426,7 +28426,7 @@
         <v>0.067034289240837097</v>
       </c>
       <c r="DY64" s="1">
-        <v>-1.2927242517471313</v>
+        <v>-1.2927242517471314</v>
       </c>
       <c r="DZ64" s="1">
         <v>-0.28617805242538452</v>
@@ -28435,7 +28435,7 @@
         <v>0.22137594223022461</v>
       </c>
       <c r="EB64" s="1">
-        <v>-1.2927242517471313</v>
+        <v>-1.2927242517471314</v>
       </c>
       <c r="EC64" s="1">
         <v>-0.28617805242538452</v>
@@ -28444,7 +28444,7 @@
         <v>0.22137594223022461</v>
       </c>
       <c r="EE64" s="1">
-        <v>-1.2927242517471313</v>
+        <v>-1.2927242517471314</v>
       </c>
       <c r="EF64" s="1">
         <v>-0.28617805242538452</v>
@@ -28557,7 +28557,7 @@
         <v>-0.94245666265487671</v>
       </c>
       <c r="AC65" s="1">
-        <v>-0.9426429271697998</v>
+        <v>-0.94264292716979981</v>
       </c>
       <c r="AD65" s="1">
         <v>0.0093922354280948639</v>
@@ -28581,7 +28581,7 @@
         <v>-0.94245666265487671</v>
       </c>
       <c r="AK65" s="1">
-        <v>-0.9426429271697998</v>
+        <v>-0.94264292716979981</v>
       </c>
       <c r="AL65" s="1">
         <v>0.0098656350746750832</v>
@@ -28605,7 +28605,7 @@
         <v>-0.94245666265487671</v>
       </c>
       <c r="AS65" s="1">
-        <v>-0.9426429271697998</v>
+        <v>-0.94264292716979981</v>
       </c>
       <c r="AT65" s="1">
         <v>0.010007085278630257</v>
@@ -28722,10 +28722,10 @@
         <v>1</v>
       </c>
       <c r="CF65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH65" s="1">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="CJ65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK65" s="1">
         <v>0</v>
@@ -28884,13 +28884,13 @@
         <v>0.10347609966993332</v>
       </c>
       <c r="EH65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI65" s="1">
         <v>1</v>
       </c>
       <c r="EJ65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK65" s="1">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>-0.45511463284492493</v>
       </c>
       <c r="AF66" s="1">
-        <v>-0.52425599098205566</v>
+        <v>-0.52425599098205567</v>
       </c>
       <c r="AG66" s="1">
         <v>-0.45462694764137268</v>
@@ -29021,7 +29021,7 @@
         <v>-0.45511463284492493</v>
       </c>
       <c r="AN66" s="1">
-        <v>-0.52425599098205566</v>
+        <v>-0.52425599098205567</v>
       </c>
       <c r="AO66" s="1">
         <v>-0.45462694764137268</v>
@@ -29045,7 +29045,7 @@
         <v>-0.45511463284492493</v>
       </c>
       <c r="AV66" s="1">
-        <v>-0.52425599098205566</v>
+        <v>-0.52425599098205567</v>
       </c>
       <c r="AW66" s="1">
         <v>-0.45462694764137268</v>
@@ -29365,7 +29365,7 @@
         <v>-0.00025783199816942215</v>
       </c>
       <c r="K67" s="1">
-        <v>0.0033650710247457027</v>
+        <v>0.0033650710247457028</v>
       </c>
       <c r="L67" s="1">
         <v>0.058673232793807983</v>
@@ -29410,7 +29410,7 @@
         <v>4</v>
       </c>
       <c r="Z67" s="1">
-        <v>0.021489297971129417</v>
+        <v>0.021489297971129418</v>
       </c>
       <c r="AA67" s="1">
         <v>-0.0069929687306284904</v>
@@ -29419,7 +29419,7 @@
         <v>-0.93859291076660156</v>
       </c>
       <c r="AC67" s="1">
-        <v>-0.97140884399414062</v>
+        <v>-0.97140884399414063</v>
       </c>
       <c r="AD67" s="1">
         <v>0.08556702733039856</v>
@@ -29629,7 +29629,7 @@
         <v>274</v>
       </c>
       <c r="CU67" s="1">
-        <v>0.0033650710247457027</v>
+        <v>0.0033650710247457028</v>
       </c>
       <c r="CV67" s="1">
         <v>0.058673232793807983</v>
@@ -29662,7 +29662,7 @@
         <v>2</v>
       </c>
       <c r="DF67" s="1">
-        <v>0.0033650710247457027</v>
+        <v>0.0033650710247457028</v>
       </c>
       <c r="DG67" s="1">
         <v>1</v>
@@ -29692,7 +29692,7 @@
         <v>2</v>
       </c>
       <c r="DP67" s="1">
-        <v>0.0033650710247457027</v>
+        <v>0.0033650710247457028</v>
       </c>
       <c r="DQ67" s="1">
         <v>8</v>
@@ -29784,7 +29784,7 @@
         <v>-9.7900003311224282e-05</v>
       </c>
       <c r="G68" s="1">
-        <v>-0.00093740300508216023</v>
+        <v>-0.00093740300508216024</v>
       </c>
       <c r="H68" s="1">
         <v>-0.97001594305038452</v>
@@ -29799,7 +29799,7 @@
         <v>0.012206212617456913</v>
       </c>
       <c r="L68" s="1">
-        <v>0.052963703870773315</v>
+        <v>0.052963703870773316</v>
       </c>
       <c r="M68" s="1">
         <v>0.024873899295926094</v>
@@ -29856,7 +29856,7 @@
         <v>0.066647335886955261</v>
       </c>
       <c r="AE68" s="1">
-        <v>-0.073808185756206512</v>
+        <v>-0.073808185756206513</v>
       </c>
       <c r="AF68" s="1">
         <v>-0.12425027042627335</v>
@@ -29880,7 +29880,7 @@
         <v>0.066647335886955261</v>
       </c>
       <c r="AM68" s="1">
-        <v>-0.073808185756206512</v>
+        <v>-0.073808185756206513</v>
       </c>
       <c r="AN68" s="1">
         <v>-0.12425027042627335</v>
@@ -29904,7 +29904,7 @@
         <v>0.066647335886955261</v>
       </c>
       <c r="AU68" s="1">
-        <v>-0.073808185756206512</v>
+        <v>-0.073808185756206513</v>
       </c>
       <c r="AV68" s="1">
         <v>-0.12425027042627335</v>
@@ -30063,7 +30063,7 @@
         <v>0.012206212617456913</v>
       </c>
       <c r="CV68" s="1">
-        <v>0.052963703870773315</v>
+        <v>0.052963703870773316</v>
       </c>
       <c r="CW68" s="1">
         <v>-0.97001594305038452</v>
@@ -30099,7 +30099,7 @@
         <v>1</v>
       </c>
       <c r="DH68" s="1">
-        <v>0.052963703870773315</v>
+        <v>0.052963703870773316</v>
       </c>
       <c r="DI68" s="1">
         <v>2</v>
@@ -30129,7 +30129,7 @@
         <v>1</v>
       </c>
       <c r="DR68" s="1">
-        <v>0.052963703870773315</v>
+        <v>0.052963703870773316</v>
       </c>
       <c r="DS68" s="1">
         <v>1</v>
@@ -30192,7 +30192,7 @@
         <v>1</v>
       </c>
       <c r="EM68" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="69">
@@ -30877,10 +30877,10 @@
         <v>0</v>
       </c>
       <c r="CF70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH70" s="1">
         <v>0</v>
@@ -30889,7 +30889,7 @@
         <v>0</v>
       </c>
       <c r="CJ70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK70" s="1">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>2.6123619079589844</v>
       </c>
       <c r="EH70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI70" s="1">
         <v>0</v>
@@ -31565,7 +31565,7 @@
         <v>99</v>
       </c>
       <c r="Z72" s="1">
-        <v>-0.19724953174591064</v>
+        <v>-0.19724953174591065</v>
       </c>
       <c r="AA72" s="1">
         <v>0.79746145009994507</v>
@@ -31628,7 +31628,7 @@
         <v>-0.43328636884689331</v>
       </c>
       <c r="AU72" s="1">
-        <v>0.60620719194412231</v>
+        <v>0.60620719194412232</v>
       </c>
       <c r="AV72" s="1">
         <v>-1.4013838768005371</v>
@@ -31643,7 +31643,7 @@
         <v>17.682802200317383</v>
       </c>
       <c r="AZ72" s="1">
-        <v>24.161413192749023</v>
+        <v>24.161413192749024</v>
       </c>
       <c r="BA72" s="1">
         <v>1</v>
@@ -31886,7 +31886,7 @@
         <v>-1.0643895864486694</v>
       </c>
       <c r="EC72" s="1">
-        <v>0.40253365039825439</v>
+        <v>0.4025336503982544</v>
       </c>
       <c r="ED72" s="1">
         <v>-0.37818261981010437</v>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>-0.0021001289132982492</v>
+        <v>-0.0021001289132982493</v>
       </c>
       <c r="G73" s="1">
         <v>4.2499999835854396e-05</v>
@@ -31954,7 +31954,7 @@
         <v>0.0076507851481437683</v>
       </c>
       <c r="L73" s="1">
-        <v>0.020781716331839561</v>
+        <v>0.020781716331839562</v>
       </c>
       <c r="M73" s="1">
         <v>0.011342089623212814</v>
@@ -32214,7 +32214,7 @@
         <v>0.0076507851481437683</v>
       </c>
       <c r="CV73" s="1">
-        <v>0.020781716331839561</v>
+        <v>0.020781716331839562</v>
       </c>
       <c r="CW73" s="1">
         <v>-0.98732280731201172</v>
@@ -32250,7 +32250,7 @@
         <v>1</v>
       </c>
       <c r="DH73" s="1">
-        <v>0.020781716331839561</v>
+        <v>0.020781716331839562</v>
       </c>
       <c r="DI73" s="1">
         <v>2</v>
@@ -32274,13 +32274,13 @@
         <v>31</v>
       </c>
       <c r="DP73" s="1">
-        <v>-0.0021001289132982492</v>
+        <v>-0.0021001289132982493</v>
       </c>
       <c r="DQ73" s="1">
         <v>1</v>
       </c>
       <c r="DR73" s="1">
-        <v>0.020781716331839561</v>
+        <v>0.020781716331839562</v>
       </c>
       <c r="DS73" s="1">
         <v>1</v>
@@ -32426,7 +32426,7 @@
         <v>0.36417132616043091</v>
       </c>
       <c r="AA74" s="1">
-        <v>0.46267241239547729</v>
+        <v>0.4626724123954773</v>
       </c>
       <c r="AB74" s="1">
         <v>-0.25644415616989136</v>
@@ -32492,7 +32492,7 @@
         <v>-1.5269798040390015</v>
       </c>
       <c r="AW74" s="1">
-        <v>-1.7947834730148315</v>
+        <v>-1.7947834730148316</v>
       </c>
       <c r="AX74" s="1">
         <v>0.75627493858337402</v>
@@ -32732,7 +32732,7 @@
         <v>0.020569626241922379</v>
       </c>
       <c r="DY74" s="1">
-        <v>-1.8041838407516479</v>
+        <v>-1.804183840751648</v>
       </c>
       <c r="DZ74" s="1">
         <v>-1.4200804233551025</v>
@@ -33242,7 +33242,7 @@
         <v>0.19080549478530884</v>
       </c>
       <c r="M76" s="1">
-        <v>0.070094622671604156</v>
+        <v>0.070094622671604157</v>
       </c>
       <c r="N76" s="1">
         <v>0.038511186838150024</v>
@@ -33455,10 +33455,10 @@
         <v>1</v>
       </c>
       <c r="CF76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH76" s="1">
         <v>0</v>
@@ -33467,7 +33467,7 @@
         <v>0</v>
       </c>
       <c r="CJ76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK76" s="1">
         <v>0</v>
@@ -33545,7 +33545,7 @@
         <v>12</v>
       </c>
       <c r="DJ76" s="1">
-        <v>0.070094622671604156</v>
+        <v>0.070094622671604157</v>
       </c>
       <c r="DK76" s="1">
         <v>13</v>
@@ -33617,13 +33617,13 @@
         <v>0.64585757255554199</v>
       </c>
       <c r="EH76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI76" s="1">
         <v>1</v>
       </c>
       <c r="EJ76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK76" s="1">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>0.00017956900410354137</v>
+        <v>0.00017956900410354138</v>
       </c>
       <c r="G77" s="1">
         <v>6.4175699662882835e-05</v>
@@ -33664,7 +33664,7 @@
         <v>-1.0418034791946411</v>
       </c>
       <c r="J77" s="1">
-        <v>0.00019112099835183471</v>
+        <v>0.00019112099835183472</v>
       </c>
       <c r="K77" s="1">
         <v>0.10039506852626801</v>
@@ -33724,7 +33724,7 @@
         <v>-2.6260852813720703</v>
       </c>
       <c r="AD77" s="1">
-        <v>0.72938907146453857</v>
+        <v>0.72938907146453858</v>
       </c>
       <c r="AE77" s="1">
         <v>-0.26176691055297852</v>
@@ -34179,7 +34179,7 @@
         <v>-0.32889524102210999</v>
       </c>
       <c r="AN78" s="1">
-        <v>-0.51788324117660522</v>
+        <v>-0.51788324117660523</v>
       </c>
       <c r="AO78" s="1">
         <v>-0.36906009912490845</v>
@@ -34457,7 +34457,7 @@
         <v>-0.35505303740501404</v>
       </c>
       <c r="ED78" s="1">
-        <v>0.63507604598999023</v>
+        <v>0.63507604598999024</v>
       </c>
       <c r="EE78" s="1">
         <v>-0.5590706467628479</v>
@@ -34519,7 +34519,7 @@
         <v>-0.064466863870620728</v>
       </c>
       <c r="K79" s="1">
-        <v>0.40931203961372375</v>
+        <v>0.40931203961372376</v>
       </c>
       <c r="L79" s="1">
         <v>1.0276412963867188</v>
@@ -34603,7 +34603,7 @@
         <v>0.48365798592567444</v>
       </c>
       <c r="AM79" s="1">
-        <v>0.60187834501266479</v>
+        <v>0.6018783450126648</v>
       </c>
       <c r="AN79" s="1">
         <v>-2.0043208599090576</v>
@@ -34779,7 +34779,7 @@
         <v>220</v>
       </c>
       <c r="CU79" s="1">
-        <v>0.40931203961372375</v>
+        <v>0.40931203961372376</v>
       </c>
       <c r="CV79" s="1">
         <v>1.0276412963867188</v>
@@ -34812,7 +34812,7 @@
         <v>2</v>
       </c>
       <c r="DF79" s="1">
-        <v>0.40931203961372375</v>
+        <v>0.40931203961372376</v>
       </c>
       <c r="DG79" s="1">
         <v>1</v>
@@ -34890,7 +34890,7 @@
         <v>-2.5249879360198975</v>
       </c>
       <c r="EF79" s="1">
-        <v>0.95239859819412231</v>
+        <v>0.95239859819412232</v>
       </c>
       <c r="EG79" s="1">
         <v>-0.37718936800956726</v>
@@ -34911,7 +34911,7 @@
         <v>0</v>
       </c>
       <c r="EM79" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="80">
@@ -34937,7 +34937,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>-0.88217312097549438</v>
+        <v>-0.88217312097549439</v>
       </c>
       <c r="I80" s="1">
         <v>-0.94022363424301147</v>
@@ -35096,7 +35096,7 @@
         <v>1</v>
       </c>
       <c r="BI80" s="1">
-        <v>-0.88217312097549438</v>
+        <v>-0.88217312097549439</v>
       </c>
       <c r="BJ80" s="1">
         <v>-0.94022363424301147</v>
@@ -35212,7 +35212,7 @@
         <v>0.78215426206588745</v>
       </c>
       <c r="CW80" s="1">
-        <v>-0.88217312097549438</v>
+        <v>-0.88217312097549439</v>
       </c>
       <c r="CX80" s="1">
         <v>-0.94022363424301147</v>
@@ -35281,7 +35281,7 @@
         <v>1</v>
       </c>
       <c r="DT80" s="1">
-        <v>-0.88217312097549438</v>
+        <v>-0.88217312097549439</v>
       </c>
       <c r="DU80" s="1">
         <v>1</v>
@@ -35305,7 +35305,7 @@
         <v>0.20305028557777405</v>
       </c>
       <c r="EB80" s="1">
-        <v>-0.77868944406509399</v>
+        <v>-0.778689444065094</v>
       </c>
       <c r="EC80" s="1">
         <v>-0.15811021625995636</v>
@@ -35314,7 +35314,7 @@
         <v>0.20304656028747559</v>
       </c>
       <c r="EE80" s="1">
-        <v>-0.77868944406509399</v>
+        <v>-0.778689444065094</v>
       </c>
       <c r="EF80" s="1">
         <v>-0.15811021625995636</v>
@@ -35358,7 +35358,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>-0.019930845126509666</v>
+        <v>-0.019930845126509667</v>
       </c>
       <c r="G81" s="1">
         <v>1.7100000582193076e-10</v>
@@ -35723,10 +35723,10 @@
         <v>0.16487304866313934</v>
       </c>
       <c r="DY81" s="1">
-        <v>-2.7662267684936523</v>
+        <v>-2.7662267684936524</v>
       </c>
       <c r="DZ81" s="1">
-        <v>-0.41538465023040771</v>
+        <v>-0.41538465023040772</v>
       </c>
       <c r="EA81" s="1">
         <v>0.15016290545463562</v>
@@ -36234,7 +36234,7 @@
         <v>0.025461724027991295</v>
       </c>
       <c r="L83" s="1">
-        <v>0.15949553251266479</v>
+        <v>0.1594955325126648</v>
       </c>
       <c r="M83" s="1">
         <v>0.00062646000878885388</v>
@@ -36498,7 +36498,7 @@
         <v>0.025461724027991295</v>
       </c>
       <c r="CV83" s="1">
-        <v>0.15949553251266479</v>
+        <v>0.1594955325126648</v>
       </c>
       <c r="CW83" s="1">
         <v>-0.98395776748657227</v>
@@ -36534,7 +36534,7 @@
         <v>3</v>
       </c>
       <c r="DH83" s="1">
-        <v>0.15949553251266479</v>
+        <v>0.1594955325126648</v>
       </c>
       <c r="DI83" s="1">
         <v>19</v>
@@ -36564,7 +36564,7 @@
         <v>3</v>
       </c>
       <c r="DR83" s="1">
-        <v>0.15949553251266479</v>
+        <v>0.1594955325126648</v>
       </c>
       <c r="DS83" s="1">
         <v>1</v>
@@ -36656,7 +36656,7 @@
         <v>-0.6975632905960083</v>
       </c>
       <c r="I84" s="1">
-        <v>-0.84925448894500732</v>
+        <v>-0.84925448894500733</v>
       </c>
       <c r="J84" s="1">
         <v>-0.00041831599082797766</v>
@@ -36815,7 +36815,7 @@
         <v>-0.6975632905960083</v>
       </c>
       <c r="BJ84" s="1">
-        <v>-0.84925448894500732</v>
+        <v>-0.84925448894500733</v>
       </c>
       <c r="BK84" s="1">
         <v>0.5</v>
@@ -36931,7 +36931,7 @@
         <v>-0.6975632905960083</v>
       </c>
       <c r="CX84" s="1">
-        <v>-0.84925448894500732</v>
+        <v>-0.84925448894500733</v>
       </c>
       <c r="CY84" s="1">
         <v>0.14671830832958221</v>
@@ -37003,7 +37003,7 @@
         <v>1</v>
       </c>
       <c r="DV84" s="1">
-        <v>-0.84925448894500732</v>
+        <v>-0.84925448894500733</v>
       </c>
       <c r="DW84" s="1">
         <v>4</v>
@@ -37140,10 +37140,10 @@
         <v>1.1817508935928345</v>
       </c>
       <c r="AB85" s="1">
-        <v>-2.5806348323822021</v>
+        <v>-2.5806348323822022</v>
       </c>
       <c r="AC85" s="1">
-        <v>-2.5806348323822021</v>
+        <v>-2.5806348323822022</v>
       </c>
       <c r="AD85" s="1">
         <v>0.56910663843154907</v>
@@ -37437,7 +37437,7 @@
         <v>0.14095866680145264</v>
       </c>
       <c r="DY85" s="1">
-        <v>-0.4579302966594696</v>
+        <v>-0.45793029665946961</v>
       </c>
       <c r="DZ85" s="1">
         <v>-0.22115032374858856</v>
@@ -37449,7 +37449,7 @@
         <v>-0.45214003324508667</v>
       </c>
       <c r="EC85" s="1">
-        <v>-0.2183539867401123</v>
+        <v>-0.21835398674011231</v>
       </c>
       <c r="ED85" s="1">
         <v>0.48293444514274597</v>
@@ -37864,7 +37864,7 @@
         <v>-0.6371464729309082</v>
       </c>
       <c r="EA86" s="1">
-        <v>0.24635037779808044</v>
+        <v>0.24635037779808045</v>
       </c>
       <c r="EB86" s="1">
         <v>-2.5863425731658936</v>
@@ -37873,7 +37873,7 @@
         <v>-0.6371464729309082</v>
       </c>
       <c r="ED86" s="1">
-        <v>0.24635037779808044</v>
+        <v>0.24635037779808045</v>
       </c>
       <c r="EE86" s="1">
         <v>-2.5863425731658936</v>
@@ -37882,7 +37882,7 @@
         <v>-0.6371464729309082</v>
       </c>
       <c r="EG86" s="1">
-        <v>0.24635037779808044</v>
+        <v>0.24635037779808045</v>
       </c>
       <c r="EH86" s="1">
         <v>1</v>
@@ -37938,7 +37938,7 @@
         <v>0.26300311088562012</v>
       </c>
       <c r="L87" s="1">
-        <v>0.040768656879663467</v>
+        <v>0.040768656879663468</v>
       </c>
       <c r="M87" s="1">
         <v>0.25753459334373474</v>
@@ -38001,7 +38001,7 @@
         <v>-0.028926169499754906</v>
       </c>
       <c r="AG87" s="1">
-        <v>-1.2307343482971191</v>
+        <v>-1.2307343482971192</v>
       </c>
       <c r="AH87" s="1">
         <v>5.881770133972168</v>
@@ -38202,7 +38202,7 @@
         <v>0.26300311088562012</v>
       </c>
       <c r="CV87" s="1">
-        <v>0.040768656879663467</v>
+        <v>0.040768656879663468</v>
       </c>
       <c r="CW87" s="1">
         <v>-0.97024738788604736</v>
@@ -38238,7 +38238,7 @@
         <v>1</v>
       </c>
       <c r="DH87" s="1">
-        <v>0.040768656879663467</v>
+        <v>0.040768656879663468</v>
       </c>
       <c r="DI87" s="1">
         <v>15</v>
@@ -38268,7 +38268,7 @@
         <v>1</v>
       </c>
       <c r="DR87" s="1">
-        <v>0.040768656879663467</v>
+        <v>0.040768656879663468</v>
       </c>
       <c r="DS87" s="1">
         <v>15</v>
@@ -38310,7 +38310,7 @@
         <v>-0.055998191237449646</v>
       </c>
       <c r="EF87" s="1">
-        <v>-3.5324470996856689</v>
+        <v>-3.532447099685669</v>
       </c>
       <c r="EG87" s="1">
         <v>63.081447601318359</v>
@@ -38363,13 +38363,13 @@
         <v>-1.0420846939086914</v>
       </c>
       <c r="J88" s="1">
-        <v>-5.0099998086985252e-19</v>
+        <v>-5.0099998086985253e-19</v>
       </c>
       <c r="K88" s="1">
         <v>0.67293339967727661</v>
       </c>
       <c r="L88" s="1">
-        <v>0.67480385303497314</v>
+        <v>0.67480385303497315</v>
       </c>
       <c r="M88" s="1">
         <v>-1.330000054728373e-19</v>
@@ -38378,7 +38378,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="1">
-        <v>0.24298697710037231</v>
+        <v>0.24298697710037232</v>
       </c>
       <c r="P88" s="1">
         <v>57</v>
@@ -38429,7 +38429,7 @@
         <v>-0.46144393086433411</v>
       </c>
       <c r="AF88" s="1">
-        <v>-0.60837924480438232</v>
+        <v>-0.60837924480438233</v>
       </c>
       <c r="AG88" s="1">
         <v>-0.46144372224807739</v>
@@ -38623,7 +38623,7 @@
         <v>0.67293339967727661</v>
       </c>
       <c r="CV88" s="1">
-        <v>0.67480385303497314</v>
+        <v>0.67480385303497315</v>
       </c>
       <c r="CW88" s="1">
         <v>-0.85256201028823853</v>
@@ -38632,7 +38632,7 @@
         <v>-1.0420846939086914</v>
       </c>
       <c r="CY88" s="1">
-        <v>0.24298697710037231</v>
+        <v>0.24298697710037232</v>
       </c>
       <c r="CZ88" s="1">
         <v>1</v>
@@ -38659,7 +38659,7 @@
         <v>1</v>
       </c>
       <c r="DH88" s="1">
-        <v>0.67480385303497314</v>
+        <v>0.67480385303497315</v>
       </c>
       <c r="DI88" s="1">
         <v>99</v>
@@ -38677,7 +38677,7 @@
         <v>4</v>
       </c>
       <c r="DN88" s="1">
-        <v>0.24298697710037231</v>
+        <v>0.24298697710037232</v>
       </c>
       <c r="DO88" s="1">
         <v>1</v>
@@ -38689,7 +38689,7 @@
         <v>1</v>
       </c>
       <c r="DR88" s="1">
-        <v>0.67480385303497314</v>
+        <v>0.67480385303497315</v>
       </c>
       <c r="DS88" s="1">
         <v>1</v>
@@ -38707,7 +38707,7 @@
         <v>4</v>
       </c>
       <c r="DX88" s="1">
-        <v>0.24298697710037231</v>
+        <v>0.24298697710037232</v>
       </c>
       <c r="DY88" s="1">
         <v>-0.71657687425613403</v>
@@ -38722,7 +38722,7 @@
         <v>-0.71657687425613403</v>
       </c>
       <c r="EC88" s="1">
-        <v>-0.54350960254669189</v>
+        <v>-0.5435096025466919</v>
       </c>
       <c r="ED88" s="1">
         <v>0.75848054885864258</v>
@@ -38731,7 +38731,7 @@
         <v>-0.71657687425613403</v>
       </c>
       <c r="EF88" s="1">
-        <v>-0.54350960254669189</v>
+        <v>-0.5435096025466919</v>
       </c>
       <c r="EG88" s="1">
         <v>0.75848054885864258</v>
@@ -38835,7 +38835,7 @@
         <v>0.91333460807800293</v>
       </c>
       <c r="AA89" s="1">
-        <v>1.6945571899414062</v>
+        <v>1.6945571899414063</v>
       </c>
       <c r="AB89" s="1">
         <v>-1.8102400302886963</v>
@@ -38847,7 +38847,7 @@
         <v>0.91201156377792358</v>
       </c>
       <c r="AE89" s="1">
-        <v>-0.42325353622436523</v>
+        <v>-0.42325353622436524</v>
       </c>
       <c r="AF89" s="1">
         <v>-0.78081625699996948</v>
@@ -38871,7 +38871,7 @@
         <v>0.91201156377792358</v>
       </c>
       <c r="AM89" s="1">
-        <v>-0.42325353622436523</v>
+        <v>-0.42325353622436524</v>
       </c>
       <c r="AN89" s="1">
         <v>-0.7900090217590332</v>
@@ -38895,7 +38895,7 @@
         <v>0.91201156377792358</v>
       </c>
       <c r="AU89" s="1">
-        <v>-0.42325353622436523</v>
+        <v>-0.42325353622436524</v>
       </c>
       <c r="AV89" s="1">
         <v>-0.79646819829940796</v>
@@ -38904,7 +38904,7 @@
         <v>-0.4212343692779541</v>
       </c>
       <c r="AX89" s="1">
-        <v>2.9942851066589355</v>
+        <v>2.9942851066589356</v>
       </c>
       <c r="AY89" s="1">
         <v>3.7218449115753174</v>
@@ -40426,7 +40426,7 @@
         <v>-1.560882568359375</v>
       </c>
       <c r="EA92" s="1">
-        <v>0.72703856229782104</v>
+        <v>0.72703856229782105</v>
       </c>
       <c r="EB92" s="1">
         <v>-2.1469047069549561</v>
@@ -40435,7 +40435,7 @@
         <v>-1.560882568359375</v>
       </c>
       <c r="ED92" s="1">
-        <v>0.72703856229782104</v>
+        <v>0.72703856229782105</v>
       </c>
       <c r="EE92" s="1">
         <v>-2.1469047069549561</v>
@@ -40444,7 +40444,7 @@
         <v>-1.560882568359375</v>
       </c>
       <c r="EG92" s="1">
-        <v>0.72703856229782104</v>
+        <v>0.72703856229782105</v>
       </c>
       <c r="EH92" s="1">
         <v>1</v>
@@ -40889,7 +40889,7 @@
         <v>0</v>
       </c>
       <c r="EM93" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="94">
@@ -40924,10 +40924,10 @@
         <v>-0.013501992449164391</v>
       </c>
       <c r="K94" s="1">
-        <v>0.1300036609172821</v>
+        <v>0.13000366091728211</v>
       </c>
       <c r="L94" s="1">
-        <v>0.73584210872650146</v>
+        <v>0.73584210872650147</v>
       </c>
       <c r="M94" s="1">
         <v>0.011626365594565868</v>
@@ -41017,7 +41017,7 @@
         <v>-0.18296076357364655</v>
       </c>
       <c r="AP94" s="1">
-        <v>0.54755085706710815</v>
+        <v>0.54755085706710816</v>
       </c>
       <c r="AQ94" s="1">
         <v>1.7844458818435669</v>
@@ -41178,10 +41178,10 @@
         <v>220</v>
       </c>
       <c r="CU94" s="1">
-        <v>0.1300036609172821</v>
+        <v>0.13000366091728211</v>
       </c>
       <c r="CV94" s="1">
-        <v>0.73584210872650146</v>
+        <v>0.73584210872650147</v>
       </c>
       <c r="CW94" s="1">
         <v>-0.91308295726776123</v>
@@ -41211,13 +41211,13 @@
         <v>3</v>
       </c>
       <c r="DF94" s="1">
-        <v>0.1300036609172821</v>
+        <v>0.13000366091728211</v>
       </c>
       <c r="DG94" s="1">
         <v>1</v>
       </c>
       <c r="DH94" s="1">
-        <v>0.73584210872650146</v>
+        <v>0.73584210872650147</v>
       </c>
       <c r="DI94" s="1">
         <v>10</v>
@@ -41241,13 +41241,13 @@
         <v>3</v>
       </c>
       <c r="DP94" s="1">
-        <v>0.1300036609172821</v>
+        <v>0.13000366091728211</v>
       </c>
       <c r="DQ94" s="1">
         <v>1</v>
       </c>
       <c r="DR94" s="1">
-        <v>0.73584210872650146</v>
+        <v>0.73584210872650147</v>
       </c>
       <c r="DS94" s="1">
         <v>1</v>
@@ -41468,7 +41468,7 @@
         <v>2.2565860748291016</v>
       </c>
       <c r="AZ95" s="1">
-        <v>2.5380318164825439</v>
+        <v>2.538031816482544</v>
       </c>
       <c r="BA95" s="1">
         <v>0</v>
@@ -42144,7 +42144,7 @@
         <v>1.7167650461196899</v>
       </c>
       <c r="EE96" s="1">
-        <v>-0.40410608053207397</v>
+        <v>-0.40410608053207398</v>
       </c>
       <c r="EF96" s="1">
         <v>-0.63006943464279175</v>
@@ -42633,7 +42633,7 @@
         <v>0.44122937321662903</v>
       </c>
       <c r="L98" s="1">
-        <v>0.54086065292358398</v>
+        <v>0.54086065292358399</v>
       </c>
       <c r="M98" s="1">
         <v>0.087335012853145599</v>
@@ -42642,7 +42642,7 @@
         <v>0.20250079035758972</v>
       </c>
       <c r="O98" s="1">
-        <v>0.20675982534885406</v>
+        <v>0.20675982534885407</v>
       </c>
       <c r="P98" s="1">
         <v>9</v>
@@ -42893,7 +42893,7 @@
         <v>0.44122937321662903</v>
       </c>
       <c r="CV98" s="1">
-        <v>0.54086065292358398</v>
+        <v>0.54086065292358399</v>
       </c>
       <c r="CW98" s="1">
         <v>-0.9163588285446167</v>
@@ -42902,7 +42902,7 @@
         <v>-1.1711270809173584</v>
       </c>
       <c r="CY98" s="1">
-        <v>0.20675982534885406</v>
+        <v>0.20675982534885407</v>
       </c>
       <c r="CZ98" s="1">
         <v>1</v>
@@ -42929,7 +42929,7 @@
         <v>3</v>
       </c>
       <c r="DH98" s="1">
-        <v>0.54086065292358398</v>
+        <v>0.54086065292358399</v>
       </c>
       <c r="DI98" s="1">
         <v>7</v>
@@ -42947,7 +42947,7 @@
         <v>4</v>
       </c>
       <c r="DN98" s="1">
-        <v>0.20675982534885406</v>
+        <v>0.20675982534885407</v>
       </c>
       <c r="DO98" s="1">
         <v>9</v>
@@ -42959,7 +42959,7 @@
         <v>3</v>
       </c>
       <c r="DR98" s="1">
-        <v>0.54086065292358398</v>
+        <v>0.54086065292358399</v>
       </c>
       <c r="DS98" s="1">
         <v>1</v>
@@ -43042,13 +43042,13 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>1.7200000104744539e-14</v>
+        <v>1.720000010474454e-14</v>
       </c>
       <c r="G99" s="1">
         <v>5.0200000542089188e-16</v>
       </c>
       <c r="H99" s="1">
-        <v>-0.9501960277557373</v>
+        <v>-0.95019602775573731</v>
       </c>
       <c r="I99" s="1">
         <v>-1.1659021377563477</v>
@@ -43102,7 +43102,7 @@
         <v>4</v>
       </c>
       <c r="Z99" s="1">
-        <v>0.86306601762771606</v>
+        <v>0.86306601762771607</v>
       </c>
       <c r="AA99" s="1">
         <v>0.30751821398735046</v>
@@ -43132,10 +43132,10 @@
         <v>0.30752146244049072</v>
       </c>
       <c r="AJ99" s="1">
-        <v>-2.5516269207000732</v>
+        <v>-2.5516269207000733</v>
       </c>
       <c r="AK99" s="1">
-        <v>-2.5516269207000732</v>
+        <v>-2.5516269207000733</v>
       </c>
       <c r="AL99" s="1">
         <v>0.8630748987197876</v>
@@ -43156,10 +43156,10 @@
         <v>0.30752146244049072</v>
       </c>
       <c r="AR99" s="1">
-        <v>-2.5516269207000732</v>
+        <v>-2.5516269207000733</v>
       </c>
       <c r="AS99" s="1">
-        <v>-2.5516269207000732</v>
+        <v>-2.5516269207000733</v>
       </c>
       <c r="AT99" s="1">
         <v>0.8630748987197876</v>
@@ -43207,7 +43207,7 @@
         <v>0</v>
       </c>
       <c r="BI99" s="1">
-        <v>-0.9501960277557373</v>
+        <v>-0.95019602775573731</v>
       </c>
       <c r="BJ99" s="1">
         <v>-1.1659021377563477</v>
@@ -43327,7 +43327,7 @@
         <v>0.12540526688098907</v>
       </c>
       <c r="CW99" s="1">
-        <v>-0.9501960277557373</v>
+        <v>-0.95019602775573731</v>
       </c>
       <c r="CX99" s="1">
         <v>-1.1659021377563477</v>
@@ -43396,7 +43396,7 @@
         <v>1</v>
       </c>
       <c r="DT99" s="1">
-        <v>-0.9501960277557373</v>
+        <v>-0.95019602775573731</v>
       </c>
       <c r="DU99" s="1">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         <v>1</v>
       </c>
       <c r="Z100" s="1">
-        <v>1.6659237146377563</v>
+        <v>1.6659237146377564</v>
       </c>
       <c r="AA100" s="1">
         <v>0.49405941367149353</v>
@@ -43557,7 +43557,7 @@
         <v>-2.2327287197113037</v>
       </c>
       <c r="AH100" s="1">
-        <v>1.6659237146377563</v>
+        <v>1.6659237146377564</v>
       </c>
       <c r="AI100" s="1">
         <v>0.49405941367149353</v>
@@ -43581,7 +43581,7 @@
         <v>-2.2327287197113037</v>
       </c>
       <c r="AP100" s="1">
-        <v>1.6659237146377563</v>
+        <v>1.6659237146377564</v>
       </c>
       <c r="AQ100" s="1">
         <v>0.49405941367149353</v>
@@ -43844,7 +43844,7 @@
         <v>-1.2987139225006104</v>
       </c>
       <c r="EA100" s="1">
-        <v>3.3719096183776855</v>
+        <v>3.3719096183776856</v>
       </c>
       <c r="EB100" s="1">
         <v>-0.3851567804813385</v>
@@ -43853,7 +43853,7 @@
         <v>-1.2987139225006104</v>
       </c>
       <c r="ED100" s="1">
-        <v>3.3719096183776855</v>
+        <v>3.3719096183776856</v>
       </c>
       <c r="EE100" s="1">
         <v>-0.3851567804813385</v>
@@ -43862,7 +43862,7 @@
         <v>-1.2987139225006104</v>
       </c>
       <c r="EG100" s="1">
-        <v>3.3719096183776855</v>
+        <v>3.3719096183776856</v>
       </c>
       <c r="EH100" s="1">
         <v>1</v>
@@ -44008,7 +44008,7 @@
         <v>-1.0027958154678345</v>
       </c>
       <c r="AP101" s="1">
-        <v>1.4564656019210815</v>
+        <v>1.4564656019210816</v>
       </c>
       <c r="AQ101" s="1">
         <v>0.56648659706115723</v>
@@ -44274,7 +44274,7 @@
         <v>3.0004537105560303</v>
       </c>
       <c r="EB101" s="1">
-        <v>-0.38520315289497375</v>
+        <v>-0.38520315289497376</v>
       </c>
       <c r="EC101" s="1">
         <v>-1.038899302482605</v>
@@ -44333,7 +44333,7 @@
         <v>-0.054953973740339279</v>
       </c>
       <c r="H102" s="1">
-        <v>-0.30057144165039062</v>
+        <v>-0.30057144165039063</v>
       </c>
       <c r="I102" s="1">
         <v>-0.32092383503913879</v>
@@ -44492,7 +44492,7 @@
         <v>1</v>
       </c>
       <c r="BI102" s="1">
-        <v>-0.30057144165039062</v>
+        <v>-0.30057144165039063</v>
       </c>
       <c r="BJ102" s="1">
         <v>-0.32092383503913879</v>
@@ -44608,7 +44608,7 @@
         <v>5.3909916877746582</v>
       </c>
       <c r="CW102" s="1">
-        <v>-0.30057144165039062</v>
+        <v>-0.30057144165039063</v>
       </c>
       <c r="CX102" s="1">
         <v>-0.32092383503913879</v>
@@ -44677,7 +44677,7 @@
         <v>1</v>
       </c>
       <c r="DT102" s="1">
-        <v>-0.30057144165039062</v>
+        <v>-0.30057144165039063</v>
       </c>
       <c r="DU102" s="1">
         <v>1</v>
@@ -44713,7 +44713,7 @@
         <v>-7.4882211685180664</v>
       </c>
       <c r="EF102" s="1">
-        <v>0.028886117041110992</v>
+        <v>0.028886117041110993</v>
       </c>
       <c r="EG102" s="1">
         <v>-0.0038575406651943922</v>
@@ -45131,13 +45131,13 @@
         <v>-0.67199254035949707</v>
       </c>
       <c r="EC103" s="1">
-        <v>-0.31328797340393066</v>
+        <v>-0.31328797340393067</v>
       </c>
       <c r="ED103" s="1">
         <v>0.46620753407478333</v>
       </c>
       <c r="EE103" s="1">
-        <v>-0.67199248075485229</v>
+        <v>-0.6719924807548523</v>
       </c>
       <c r="EF103" s="1">
         <v>-0.31328791379928589</v>
@@ -45680,10 +45680,10 @@
         <v>-2.04567551612854</v>
       </c>
       <c r="AD105" s="1">
-        <v>1.0209872722625732</v>
+        <v>1.0209872722625733</v>
       </c>
       <c r="AE105" s="1">
-        <v>-0.40497311949729919</v>
+        <v>-0.4049731194972992</v>
       </c>
       <c r="AF105" s="1">
         <v>-0.33544006943702698</v>
@@ -45707,13 +45707,13 @@
         <v>1.0209875106811523</v>
       </c>
       <c r="AM105" s="1">
-        <v>-0.40497311949729919</v>
+        <v>-0.4049731194972992</v>
       </c>
       <c r="AN105" s="1">
         <v>-0.33544009923934937</v>
       </c>
       <c r="AO105" s="1">
-        <v>-0.40497311949729919</v>
+        <v>-0.4049731194972992</v>
       </c>
       <c r="AP105" s="1">
         <v>1.0209875106811523</v>
@@ -45731,13 +45731,13 @@
         <v>1.0209875106811523</v>
       </c>
       <c r="AU105" s="1">
-        <v>-0.40497311949729919</v>
+        <v>-0.4049731194972992</v>
       </c>
       <c r="AV105" s="1">
         <v>-0.33544009923934937</v>
       </c>
       <c r="AW105" s="1">
-        <v>-0.40497311949729919</v>
+        <v>-0.4049731194972992</v>
       </c>
       <c r="AX105" s="1">
         <v>-0.61937689781188965</v>
@@ -46098,7 +46098,7 @@
         <v>0.58000868558883667</v>
       </c>
       <c r="AA106" s="1">
-        <v>3.7748932838439941</v>
+        <v>3.7748932838439942</v>
       </c>
       <c r="AB106" s="1">
         <v>-1.2427530288696289</v>
@@ -46122,7 +46122,7 @@
         <v>0.58000868558883667</v>
       </c>
       <c r="AI106" s="1">
-        <v>3.7748932838439941</v>
+        <v>3.7748932838439942</v>
       </c>
       <c r="AJ106" s="1">
         <v>-1.2427530288696289</v>
@@ -46146,7 +46146,7 @@
         <v>0.58000868558883667</v>
       </c>
       <c r="AQ106" s="1">
-        <v>3.7748932838439941</v>
+        <v>3.7748932838439942</v>
       </c>
       <c r="AR106" s="1">
         <v>-1.2427530288696289</v>
@@ -46465,7 +46465,7 @@
         <v>-0.017166763544082642</v>
       </c>
       <c r="G107" s="1">
-        <v>0.0030276000034064054</v>
+        <v>0.0030276000034064055</v>
       </c>
       <c r="H107" s="1">
         <v>-0.90664106607437134</v>
@@ -47452,7 +47452,7 @@
         <v>-0.16226351261138916</v>
       </c>
       <c r="AX109" s="1">
-        <v>3.3698494434356689</v>
+        <v>3.369849443435669</v>
       </c>
       <c r="AY109" s="1">
         <v>3.242609977722168</v>
@@ -47695,7 +47695,7 @@
         <v>-0.18419243395328522</v>
       </c>
       <c r="EA109" s="1">
-        <v>0.22579795122146606</v>
+        <v>0.22579795122146607</v>
       </c>
       <c r="EB109" s="1">
         <v>-0.81574004888534546</v>
@@ -47704,7 +47704,7 @@
         <v>-0.18419243395328522</v>
       </c>
       <c r="ED109" s="1">
-        <v>0.22579795122146606</v>
+        <v>0.22579795122146607</v>
       </c>
       <c r="EE109" s="1">
         <v>-0.81574004888534546</v>
@@ -47713,7 +47713,7 @@
         <v>-0.18419243395328522</v>
       </c>
       <c r="EG109" s="1">
-        <v>0.22579795122146606</v>
+        <v>0.22579795122146607</v>
       </c>
       <c r="EH109" s="1">
         <v>0</v>
@@ -48317,7 +48317,7 @@
         <v>52.231349945068359</v>
       </c>
       <c r="AY111" s="1">
-        <v>214.45877075195312</v>
+        <v>214.45877075195313</v>
       </c>
       <c r="AZ111" s="1">
         <v>498.727294921875</v>
@@ -48619,13 +48619,13 @@
         <v>-0.0081866700202226639</v>
       </c>
       <c r="H112" s="1">
-        <v>-0.9744575023651123</v>
+        <v>-0.97445750236511231</v>
       </c>
       <c r="I112" s="1">
         <v>-1.0492122173309326</v>
       </c>
       <c r="J112" s="1">
-        <v>-0.0031112129800021648</v>
+        <v>-0.0031112129800021649</v>
       </c>
       <c r="K112" s="1">
         <v>0.074754707515239716</v>
@@ -48676,7 +48676,7 @@
         <v>0.48569571971893311</v>
       </c>
       <c r="AA112" s="1">
-        <v>1.547667384147644</v>
+        <v>1.5476673841476441</v>
       </c>
       <c r="AB112" s="1">
         <v>-2.7252240180969238</v>
@@ -48700,7 +48700,7 @@
         <v>0.48569571971893311</v>
       </c>
       <c r="AI112" s="1">
-        <v>1.547667384147644</v>
+        <v>1.5476673841476441</v>
       </c>
       <c r="AJ112" s="1">
         <v>-2.7252240180969238</v>
@@ -48724,7 +48724,7 @@
         <v>0.48569571971893311</v>
       </c>
       <c r="AQ112" s="1">
-        <v>1.547667384147644</v>
+        <v>1.5476673841476441</v>
       </c>
       <c r="AR112" s="1">
         <v>-2.7252240180969238</v>
@@ -48778,7 +48778,7 @@
         <v>1</v>
       </c>
       <c r="BI112" s="1">
-        <v>-0.9744575023651123</v>
+        <v>-0.97445750236511231</v>
       </c>
       <c r="BJ112" s="1">
         <v>-1.0492122173309326</v>
@@ -48898,7 +48898,7 @@
         <v>0.24077644944190979</v>
       </c>
       <c r="CW112" s="1">
-        <v>-0.9744575023651123</v>
+        <v>-0.97445750236511231</v>
       </c>
       <c r="CX112" s="1">
         <v>-1.0492122173309326</v>
@@ -48967,7 +48967,7 @@
         <v>1</v>
       </c>
       <c r="DT112" s="1">
-        <v>-0.9744575023651123</v>
+        <v>-0.97445750236511231</v>
       </c>
       <c r="DU112" s="1">
         <v>1</v>
@@ -49104,7 +49104,7 @@
         <v>3</v>
       </c>
       <c r="Z113" s="1">
-        <v>-0.42896679043769836</v>
+        <v>-0.42896679043769837</v>
       </c>
       <c r="AA113" s="1">
         <v>2.8288302421569824</v>
@@ -49161,7 +49161,7 @@
         <v>-5.9402561187744141</v>
       </c>
       <c r="AS113" s="1">
-        <v>-4.6854934692382812</v>
+        <v>-4.6854934692382813</v>
       </c>
       <c r="AT113" s="1">
         <v>0.90170043706893921</v>
@@ -49484,7 +49484,7 @@
         <v>-1</v>
       </c>
       <c r="I114" s="1">
-        <v>-1.0641853809356689</v>
+        <v>-1.064185380935669</v>
       </c>
       <c r="J114" s="1">
         <v>-0.0021815139334648848</v>
@@ -49643,7 +49643,7 @@
         <v>-1</v>
       </c>
       <c r="BJ114" s="1">
-        <v>-1.0641853809356689</v>
+        <v>-1.064185380935669</v>
       </c>
       <c r="BK114" s="1">
         <v>0.33333333333333331</v>
@@ -49763,7 +49763,7 @@
         <v>-1</v>
       </c>
       <c r="CX114" s="1">
-        <v>-1.0641853809356689</v>
+        <v>-1.064185380935669</v>
       </c>
       <c r="CY114" s="1">
         <v>0.068053610622882843</v>
@@ -49835,7 +49835,7 @@
         <v>1</v>
       </c>
       <c r="DV114" s="1">
-        <v>-1.0641853809356689</v>
+        <v>-1.064185380935669</v>
       </c>
       <c r="DW114" s="1">
         <v>5</v>
@@ -49933,7 +49933,7 @@
         <v>3.3519998396513984e-05</v>
       </c>
       <c r="O115" s="1">
-        <v>0.043470390141010284</v>
+        <v>0.043470390141010285</v>
       </c>
       <c r="P115" s="1">
         <v>15</v>
@@ -49972,10 +49972,10 @@
         <v>0.79528456926345825</v>
       </c>
       <c r="AB115" s="1">
-        <v>-3.2424995899200439</v>
+        <v>-3.242499589920044</v>
       </c>
       <c r="AC115" s="1">
-        <v>-3.2424995899200439</v>
+        <v>-3.242499589920044</v>
       </c>
       <c r="AD115" s="1">
         <v>0.24041658639907837</v>
@@ -50197,7 +50197,7 @@
         <v>-1.0358833074569702</v>
       </c>
       <c r="CY115" s="1">
-        <v>0.043470390141010284</v>
+        <v>0.043470390141010285</v>
       </c>
       <c r="CZ115" s="1">
         <v>2</v>
@@ -50242,7 +50242,7 @@
         <v>4</v>
       </c>
       <c r="DN115" s="1">
-        <v>0.043470390141010284</v>
+        <v>0.043470390141010285</v>
       </c>
       <c r="DO115" s="1">
         <v>2</v>
@@ -50272,7 +50272,7 @@
         <v>4</v>
       </c>
       <c r="DX115" s="1">
-        <v>0.043470390141010284</v>
+        <v>0.043470390141010285</v>
       </c>
       <c r="DY115" s="1">
         <v>-0.24526898562908173</v>
@@ -50284,7 +50284,7 @@
         <v>0.30266830325126648</v>
       </c>
       <c r="EB115" s="1">
-        <v>-0.24498173594474792</v>
+        <v>-0.24498173594474793</v>
       </c>
       <c r="EC115" s="1">
         <v>-0.074148207902908325</v>
@@ -50293,7 +50293,7 @@
         <v>0.30266830325126648</v>
       </c>
       <c r="EE115" s="1">
-        <v>-0.24498173594474792</v>
+        <v>-0.24498173594474793</v>
       </c>
       <c r="EF115" s="1">
         <v>-0.074148207902908325</v>
@@ -50469,7 +50469,7 @@
         <v>-0.11071242392063141</v>
       </c>
       <c r="AX116" s="1">
-        <v>138.30703735351562</v>
+        <v>138.30703735351563</v>
       </c>
       <c r="AY116" s="1">
         <v>186.05085754394531</v>
@@ -50846,7 +50846,7 @@
         <v>-0.15303231775760651</v>
       </c>
       <c r="AF117" s="1">
-        <v>-0.5192115306854248</v>
+        <v>-0.51921153068542481</v>
       </c>
       <c r="AG117" s="1">
         <v>-0.1470412015914917</v>
@@ -51137,7 +51137,7 @@
         <v>-0.038401424884796143</v>
       </c>
       <c r="DY117" s="1">
-        <v>-0.56227338314056396</v>
+        <v>-0.56227338314056397</v>
       </c>
       <c r="DZ117" s="1">
         <v>-0.17026329040527344</v>
@@ -51586,7 +51586,7 @@
         <v>-0.53125560283660889</v>
       </c>
       <c r="EE118" s="1">
-        <v>-1.8868707418441772</v>
+        <v>-1.8868707418441773</v>
       </c>
       <c r="EF118" s="1">
         <v>1.0841858386993408</v>
@@ -52196,7 +52196,7 @@
         <v>9.3005971908569336</v>
       </c>
       <c r="AY120" s="1">
-        <v>14.375930786132812</v>
+        <v>14.375930786132813</v>
       </c>
       <c r="AZ120" s="1">
         <v>19.270353317260742</v>
@@ -52879,7 +52879,7 @@
         <v>0.0039528040215373039</v>
       </c>
       <c r="EE121" s="1">
-        <v>-1.0836778879165649</v>
+        <v>-1.083677887916565</v>
       </c>
       <c r="EF121" s="1">
         <v>-0.0042039882391691208</v>
@@ -52903,7 +52903,7 @@
         <v>1</v>
       </c>
       <c r="EM121" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="122">
@@ -53007,7 +53007,7 @@
         <v>-0.53720879554748535</v>
       </c>
       <c r="AH122" s="1">
-        <v>2.1267609596252441</v>
+        <v>2.1267609596252442</v>
       </c>
       <c r="AI122" s="1">
         <v>2.3040142059326172</v>
@@ -53334,7 +53334,7 @@
         <v>0</v>
       </c>
       <c r="EM122" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="123">
@@ -53417,7 +53417,7 @@
         <v>0.78379076719284058</v>
       </c>
       <c r="AA123" s="1">
-        <v>1.1795500516891479</v>
+        <v>1.179550051689148</v>
       </c>
       <c r="AB123" s="1">
         <v>-3.3107128143310547</v>
@@ -53441,7 +53441,7 @@
         <v>0.99599158763885498</v>
       </c>
       <c r="AI123" s="1">
-        <v>1.1795500516891479</v>
+        <v>1.179550051689148</v>
       </c>
       <c r="AJ123" s="1">
         <v>-3.3107128143310547</v>
@@ -53450,7 +53450,7 @@
         <v>-3.2427160739898682</v>
       </c>
       <c r="AL123" s="1">
-        <v>0.99551773071289062</v>
+        <v>0.99551773071289063</v>
       </c>
       <c r="AM123" s="1">
         <v>-0.32852324843406677</v>
@@ -53465,7 +53465,7 @@
         <v>0.99599158763885498</v>
       </c>
       <c r="AQ123" s="1">
-        <v>1.1795500516891479</v>
+        <v>1.179550051689148</v>
       </c>
       <c r="AR123" s="1">
         <v>-3.3107128143310547</v>
@@ -53474,7 +53474,7 @@
         <v>-3.2427160739898682</v>
       </c>
       <c r="AT123" s="1">
-        <v>0.99551773071289062</v>
+        <v>0.99551773071289063</v>
       </c>
       <c r="AU123" s="1">
         <v>-0.32852324843406677</v>
@@ -53845,7 +53845,7 @@
         <v>4</v>
       </c>
       <c r="Z124" s="1">
-        <v>0.033782962709665298</v>
+        <v>0.033782962709665299</v>
       </c>
       <c r="AA124" s="1">
         <v>1.6853673458099365</v>
@@ -53869,7 +53869,7 @@
         <v>-0.010435039177536964</v>
       </c>
       <c r="AH124" s="1">
-        <v>0.033782962709665298</v>
+        <v>0.033782962709665299</v>
       </c>
       <c r="AI124" s="1">
         <v>1.686273455619812</v>
@@ -53893,7 +53893,7 @@
         <v>-0.010435039177536964</v>
       </c>
       <c r="AP124" s="1">
-        <v>0.033782962709665298</v>
+        <v>0.033782962709665299</v>
       </c>
       <c r="AQ124" s="1">
         <v>1.686273455619812</v>
@@ -54160,7 +54160,7 @@
         <v>-0.010652094148099422</v>
       </c>
       <c r="EA124" s="1">
-        <v>0.020044866949319839</v>
+        <v>0.02004486694931984</v>
       </c>
       <c r="EB124" s="1">
         <v>-0.53169828653335571</v>
@@ -54231,7 +54231,7 @@
         <v>5.0983999244635925e-05</v>
       </c>
       <c r="K125" s="1">
-        <v>0.13691124320030212</v>
+        <v>0.13691124320030213</v>
       </c>
       <c r="L125" s="1">
         <v>0.52275216579437256</v>
@@ -54489,7 +54489,7 @@
         <v>271</v>
       </c>
       <c r="CU125" s="1">
-        <v>0.13691124320030212</v>
+        <v>0.13691124320030213</v>
       </c>
       <c r="CV125" s="1">
         <v>0.52275216579437256</v>
@@ -54522,7 +54522,7 @@
         <v>6</v>
       </c>
       <c r="DF125" s="1">
-        <v>0.13691124320030212</v>
+        <v>0.13691124320030213</v>
       </c>
       <c r="DG125" s="1">
         <v>5</v>
@@ -54552,7 +54552,7 @@
         <v>6</v>
       </c>
       <c r="DP125" s="1">
-        <v>0.13691124320030212</v>
+        <v>0.13691124320030213</v>
       </c>
       <c r="DQ125" s="1">
         <v>5</v>
@@ -54579,7 +54579,7 @@
         <v>0.13286204636096954</v>
       </c>
       <c r="DY125" s="1">
-        <v>-1.6011806726455688</v>
+        <v>-1.6011806726455689</v>
       </c>
       <c r="DZ125" s="1">
         <v>-0.619284987449646</v>
@@ -54588,19 +54588,19 @@
         <v>0.38676771521568298</v>
       </c>
       <c r="EB125" s="1">
-        <v>-1.6011806726455688</v>
+        <v>-1.6011806726455689</v>
       </c>
       <c r="EC125" s="1">
         <v>-0.93790954351425171</v>
       </c>
       <c r="ED125" s="1">
-        <v>0.58576118946075439</v>
+        <v>0.5857611894607544</v>
       </c>
       <c r="EE125" s="1">
-        <v>-1.6011806726455688</v>
+        <v>-1.6011806726455689</v>
       </c>
       <c r="EF125" s="1">
-        <v>-1.1384111642837524</v>
+        <v>-1.1384111642837525</v>
       </c>
       <c r="EG125" s="1">
         <v>0.71098226308822632</v>
@@ -55087,7 +55087,7 @@
         <v>0.0018286269623786211</v>
       </c>
       <c r="K127" s="1">
-        <v>0.057295780628919601</v>
+        <v>0.057295780628919602</v>
       </c>
       <c r="L127" s="1">
         <v>0.10505051910877228</v>
@@ -55138,7 +55138,7 @@
         <v>0.84147578477859497</v>
       </c>
       <c r="AB127" s="1">
-        <v>-3.0860507488250732</v>
+        <v>-3.0860507488250733</v>
       </c>
       <c r="AC127" s="1">
         <v>-3.0735471248626709</v>
@@ -55156,13 +55156,13 @@
         <v>-0.15614582598209381</v>
       </c>
       <c r="AH127" s="1">
-        <v>0.62954550981521606</v>
+        <v>0.62954550981521607</v>
       </c>
       <c r="AI127" s="1">
         <v>0.84147578477859497</v>
       </c>
       <c r="AJ127" s="1">
-        <v>-3.0860507488250732</v>
+        <v>-3.0860507488250733</v>
       </c>
       <c r="AK127" s="1">
         <v>-3.0735471248626709</v>
@@ -55180,13 +55180,13 @@
         <v>-0.18731150031089783</v>
       </c>
       <c r="AP127" s="1">
-        <v>0.70586234331130981</v>
+        <v>0.70586234331130982</v>
       </c>
       <c r="AQ127" s="1">
         <v>0.84147578477859497</v>
       </c>
       <c r="AR127" s="1">
-        <v>-3.0860507488250732</v>
+        <v>-3.0860507488250733</v>
       </c>
       <c r="AS127" s="1">
         <v>-3.0735471248626709</v>
@@ -55345,7 +55345,7 @@
         <v>218</v>
       </c>
       <c r="CU127" s="1">
-        <v>0.057295780628919601</v>
+        <v>0.057295780628919602</v>
       </c>
       <c r="CV127" s="1">
         <v>0.10505051910877228</v>
@@ -55378,7 +55378,7 @@
         <v>4</v>
       </c>
       <c r="DF127" s="1">
-        <v>0.057295780628919601</v>
+        <v>0.057295780628919602</v>
       </c>
       <c r="DG127" s="1">
         <v>4</v>
@@ -55408,7 +55408,7 @@
         <v>4</v>
       </c>
       <c r="DP127" s="1">
-        <v>0.057295780628919601</v>
+        <v>0.057295780628919602</v>
       </c>
       <c r="DQ127" s="1">
         <v>4</v>
@@ -55506,7 +55506,7 @@
         <v>-0.97998511791229248</v>
       </c>
       <c r="I128" s="1">
-        <v>-1.1415772438049316</v>
+        <v>-1.1415772438049317</v>
       </c>
       <c r="J128" s="1">
         <v>-0.0011893870541825891</v>
@@ -55518,7 +55518,7 @@
         <v>0.067005738615989685</v>
       </c>
       <c r="M128" s="1">
-        <v>0.0060011171735823154</v>
+        <v>0.0060011171735823155</v>
       </c>
       <c r="N128" s="1">
         <v>0.0066393781453371048</v>
@@ -55557,7 +55557,7 @@
         <v>4</v>
       </c>
       <c r="Z128" s="1">
-        <v>0.71264034509658813</v>
+        <v>0.71264034509658814</v>
       </c>
       <c r="AA128" s="1">
         <v>0.35596346855163574</v>
@@ -55581,7 +55581,7 @@
         <v>-0.21318309009075165</v>
       </c>
       <c r="AH128" s="1">
-        <v>0.71264034509658813</v>
+        <v>0.71264034509658814</v>
       </c>
       <c r="AI128" s="1">
         <v>0.38414856791496277</v>
@@ -55605,7 +55605,7 @@
         <v>-0.21318309009075165</v>
       </c>
       <c r="AP128" s="1">
-        <v>0.71264034509658813</v>
+        <v>0.71264034509658814</v>
       </c>
       <c r="AQ128" s="1">
         <v>0.40595677495002747</v>
@@ -55629,7 +55629,7 @@
         <v>-0.21318309009075165</v>
       </c>
       <c r="AX128" s="1">
-        <v>0.16182981431484222</v>
+        <v>0.16182981431484223</v>
       </c>
       <c r="AY128" s="1">
         <v>-0.52562016248703003</v>
@@ -55665,7 +55665,7 @@
         <v>-0.97998511791229248</v>
       </c>
       <c r="BJ128" s="1">
-        <v>-1.1415772438049316</v>
+        <v>-1.1415772438049317</v>
       </c>
       <c r="BK128" s="1">
         <v>0</v>
@@ -55785,7 +55785,7 @@
         <v>-0.97998511791229248</v>
       </c>
       <c r="CX128" s="1">
-        <v>-1.1415772438049316</v>
+        <v>-1.1415772438049317</v>
       </c>
       <c r="CY128" s="1">
         <v>0.13531060516834259</v>
@@ -55821,7 +55821,7 @@
         <v>12</v>
       </c>
       <c r="DJ128" s="1">
-        <v>0.0060011171735823154</v>
+        <v>0.0060011171735823155</v>
       </c>
       <c r="DK128" s="1">
         <v>12</v>
@@ -55857,7 +55857,7 @@
         <v>1</v>
       </c>
       <c r="DV128" s="1">
-        <v>-1.1415772438049316</v>
+        <v>-1.1415772438049317</v>
       </c>
       <c r="DW128" s="1">
         <v>4</v>
@@ -55881,7 +55881,7 @@
         <v>-0.25476178526878357</v>
       </c>
       <c r="ED128" s="1">
-        <v>1.8551164865493774</v>
+        <v>1.8551164865493775</v>
       </c>
       <c r="EE128" s="1">
         <v>-0.14512549340724945</v>
@@ -56063,7 +56063,7 @@
         <v>6.222531795501709</v>
       </c>
       <c r="AY129" s="1">
-        <v>7.8913178443908691</v>
+        <v>7.8913178443908692</v>
       </c>
       <c r="AZ129" s="1">
         <v>9.354832649230957</v>
@@ -57230,7 +57230,7 @@
         <v>-0.98139077425003052</v>
       </c>
       <c r="I132" s="1">
-        <v>-1.0146710872650146</v>
+        <v>-1.0146710872650147</v>
       </c>
       <c r="J132" s="1">
         <v>-0.011259906925261021</v>
@@ -57389,7 +57389,7 @@
         <v>-0.98139077425003052</v>
       </c>
       <c r="BJ132" s="1">
-        <v>-1.0146710872650146</v>
+        <v>-1.0146710872650147</v>
       </c>
       <c r="BK132" s="1">
         <v>0.66666666666666663</v>
@@ -57509,7 +57509,7 @@
         <v>-0.98139077425003052</v>
       </c>
       <c r="CX132" s="1">
-        <v>-1.0146710872650146</v>
+        <v>-1.0146710872650147</v>
       </c>
       <c r="CY132" s="1">
         <v>0.027780139818787575</v>
@@ -57581,7 +57581,7 @@
         <v>1</v>
       </c>
       <c r="DV132" s="1">
-        <v>-1.0146710872650146</v>
+        <v>-1.0146710872650147</v>
       </c>
       <c r="DW132" s="1">
         <v>14</v>
@@ -57661,7 +57661,7 @@
         <v>-0.95379191637039185</v>
       </c>
       <c r="I133" s="1">
-        <v>-1.0785669088363647</v>
+        <v>-1.0785669088363648</v>
       </c>
       <c r="J133" s="1">
         <v>-0.0028174980543553829</v>
@@ -57820,7 +57820,7 @@
         <v>-0.95379191637039185</v>
       </c>
       <c r="BJ133" s="1">
-        <v>-1.0785669088363647</v>
+        <v>-1.0785669088363648</v>
       </c>
       <c r="BK133" s="1">
         <v>0.5</v>
@@ -57940,7 +57940,7 @@
         <v>-0.95379191637039185</v>
       </c>
       <c r="CX133" s="1">
-        <v>-1.0785669088363647</v>
+        <v>-1.0785669088363648</v>
       </c>
       <c r="CY133" s="1">
         <v>0.10854298621416092</v>
@@ -58012,7 +58012,7 @@
         <v>1</v>
       </c>
       <c r="DV133" s="1">
-        <v>-1.0785669088363647</v>
+        <v>-1.0785669088363648</v>
       </c>
       <c r="DW133" s="1">
         <v>4</v>
@@ -58149,13 +58149,13 @@
         <v>0.32331216335296631</v>
       </c>
       <c r="AB134" s="1">
-        <v>-1.3206621408462524</v>
+        <v>-1.3206621408462525</v>
       </c>
       <c r="AC134" s="1">
-        <v>-1.3206621408462524</v>
+        <v>-1.3206621408462525</v>
       </c>
       <c r="AD134" s="1">
-        <v>1.7386766672134399</v>
+        <v>1.73867666721344</v>
       </c>
       <c r="AE134" s="1">
         <v>-1.2018337249755859</v>
@@ -58164,7 +58164,7 @@
         <v>-0.23382584750652313</v>
       </c>
       <c r="AG134" s="1">
-        <v>-1.2574459314346313</v>
+        <v>-1.2574459314346314</v>
       </c>
       <c r="AH134" s="1">
         <v>1.6617815494537354</v>
@@ -58173,13 +58173,13 @@
         <v>0.32331216335296631</v>
       </c>
       <c r="AJ134" s="1">
-        <v>-1.3206621408462524</v>
+        <v>-1.3206621408462525</v>
       </c>
       <c r="AK134" s="1">
-        <v>-1.3206621408462524</v>
+        <v>-1.3206621408462525</v>
       </c>
       <c r="AL134" s="1">
-        <v>1.7386766672134399</v>
+        <v>1.73867666721344</v>
       </c>
       <c r="AM134" s="1">
         <v>-1.2018337249755859</v>
@@ -58188,7 +58188,7 @@
         <v>-0.23382584750652313</v>
       </c>
       <c r="AO134" s="1">
-        <v>-1.2574459314346313</v>
+        <v>-1.2574459314346314</v>
       </c>
       <c r="AP134" s="1">
         <v>1.6617815494537354</v>
@@ -58197,13 +58197,13 @@
         <v>0.32331216335296631</v>
       </c>
       <c r="AR134" s="1">
-        <v>-1.3206621408462524</v>
+        <v>-1.3206621408462525</v>
       </c>
       <c r="AS134" s="1">
-        <v>-1.3206621408462524</v>
+        <v>-1.3206621408462525</v>
       </c>
       <c r="AT134" s="1">
-        <v>1.7386766672134399</v>
+        <v>1.73867666721344</v>
       </c>
       <c r="AU134" s="1">
         <v>-1.2018337249755859</v>
@@ -58212,7 +58212,7 @@
         <v>-0.23382584750652313</v>
       </c>
       <c r="AW134" s="1">
-        <v>-1.2574459314346313</v>
+        <v>-1.2574459314346314</v>
       </c>
       <c r="AX134" s="1">
         <v>0.47118377685546875</v>
@@ -59011,7 +59011,7 @@
         <v>0.45182609558105469</v>
       </c>
       <c r="AB136" s="1">
-        <v>-3.5031049251556396</v>
+        <v>-3.5031049251556397</v>
       </c>
       <c r="AC136" s="1">
         <v>-3.3191845417022705</v>
@@ -59023,7 +59023,7 @@
         <v>-0.14215093851089478</v>
       </c>
       <c r="AF136" s="1">
-        <v>-0.12500408291816711</v>
+        <v>-0.12500408291816712</v>
       </c>
       <c r="AG136" s="1">
         <v>-0.12627199292182922</v>
@@ -59035,7 +59035,7 @@
         <v>0.45182609558105469</v>
       </c>
       <c r="AJ136" s="1">
-        <v>-3.5031049251556396</v>
+        <v>-3.5031049251556397</v>
       </c>
       <c r="AK136" s="1">
         <v>-2.65055251121521</v>
@@ -59047,7 +59047,7 @@
         <v>-0.33865177631378174</v>
       </c>
       <c r="AN136" s="1">
-        <v>-0.12500408291816711</v>
+        <v>-0.12500408291816712</v>
       </c>
       <c r="AO136" s="1">
         <v>-0.32391905784606934</v>
@@ -59059,7 +59059,7 @@
         <v>0.45182609558105469</v>
       </c>
       <c r="AR136" s="1">
-        <v>-3.5031049251556396</v>
+        <v>-3.5031049251556397</v>
       </c>
       <c r="AS136" s="1">
         <v>-1.982169508934021</v>
@@ -59071,7 +59071,7 @@
         <v>-0.51759082078933716</v>
       </c>
       <c r="AV136" s="1">
-        <v>-0.12500408291816711</v>
+        <v>-0.12500408291816712</v>
       </c>
       <c r="AW136" s="1">
         <v>-0.50333750247955322</v>
@@ -59394,7 +59394,7 @@
         <v>0.24090664088726044</v>
       </c>
       <c r="L137" s="1">
-        <v>0.16788806021213531</v>
+        <v>0.16788806021213532</v>
       </c>
       <c r="M137" s="1">
         <v>-0.0018080139998346567</v>
@@ -59487,7 +59487,7 @@
         <v>0.56772696971893311</v>
       </c>
       <c r="AQ137" s="1">
-        <v>1.1218870878219604</v>
+        <v>1.1218870878219605</v>
       </c>
       <c r="AR137" s="1">
         <v>-3.1629371643066406</v>
@@ -59511,7 +59511,7 @@
         <v>9.9561023712158203</v>
       </c>
       <c r="AY137" s="1">
-        <v>42.399856567382812</v>
+        <v>42.399856567382813</v>
       </c>
       <c r="AZ137" s="1">
         <v>127.65203094482422</v>
@@ -59658,7 +59658,7 @@
         <v>0.24090664088726044</v>
       </c>
       <c r="CV137" s="1">
-        <v>0.16788806021213531</v>
+        <v>0.16788806021213532</v>
       </c>
       <c r="CW137" s="1">
         <v>-0.97436630725860596</v>
@@ -59694,7 +59694,7 @@
         <v>2</v>
       </c>
       <c r="DH137" s="1">
-        <v>0.16788806021213531</v>
+        <v>0.16788806021213532</v>
       </c>
       <c r="DI137" s="1">
         <v>99</v>
@@ -59724,7 +59724,7 @@
         <v>2</v>
       </c>
       <c r="DR137" s="1">
-        <v>0.16788806021213531</v>
+        <v>0.16788806021213532</v>
       </c>
       <c r="DS137" s="1">
         <v>1</v>
@@ -59888,7 +59888,7 @@
         <v>-1.0424690246582031</v>
       </c>
       <c r="AG138" s="1">
-        <v>-1.4151225090026855</v>
+        <v>-1.4151225090026856</v>
       </c>
       <c r="AH138" s="1">
         <v>5.4264421463012695</v>
@@ -60023,7 +60023,7 @@
         <v>0</v>
       </c>
       <c r="BZ138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA138" s="1">
         <v>0</v>
@@ -60041,10 +60041,10 @@
         <v>0</v>
       </c>
       <c r="CF138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH138" s="1">
         <v>0</v>
@@ -60053,10 +60053,10 @@
         <v>0</v>
       </c>
       <c r="CJ138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL138" s="1">
         <v>0</v>
@@ -60472,10 +60472,10 @@
         <v>1</v>
       </c>
       <c r="CF139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH139" s="1">
         <v>0</v>
@@ -60484,7 +60484,7 @@
         <v>0</v>
       </c>
       <c r="CJ139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK139" s="1">
         <v>0</v>
@@ -60634,13 +60634,13 @@
         <v>0.27173763513565063</v>
       </c>
       <c r="EH139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI139" s="1">
         <v>1</v>
       </c>
       <c r="EJ139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK139" s="1">
         <v>0</v>
@@ -60741,7 +60741,7 @@
         <v>-2.3615145683288574</v>
       </c>
       <c r="AD140" s="1">
-        <v>1.5374677181243896</v>
+        <v>1.5374677181243897</v>
       </c>
       <c r="AE140" s="1">
         <v>-0.56227719783782959</v>
@@ -60765,7 +60765,7 @@
         <v>-2.3615145683288574</v>
       </c>
       <c r="AL140" s="1">
-        <v>1.5374677181243896</v>
+        <v>1.5374677181243897</v>
       </c>
       <c r="AM140" s="1">
         <v>-0.56227719783782959</v>
@@ -60789,7 +60789,7 @@
         <v>-2.3615145683288574</v>
       </c>
       <c r="AT140" s="1">
-        <v>1.5374677181243896</v>
+        <v>1.5374677181243897</v>
       </c>
       <c r="AU140" s="1">
         <v>-0.56227719783782959</v>
@@ -61103,7 +61103,7 @@
         <v>-0.0013850639807060361</v>
       </c>
       <c r="G141" s="1">
-        <v>-0.072783596813678741</v>
+        <v>-0.072783596813678742</v>
       </c>
       <c r="H141" s="1">
         <v>-0.96919083595275879</v>
@@ -61124,7 +61124,7 @@
         <v>-0.00014791400462854654</v>
       </c>
       <c r="N141" s="1">
-        <v>0.00037005206104367971</v>
+        <v>0.00037005206104367972</v>
       </c>
       <c r="O141" s="1">
         <v>0.12720505893230438</v>
@@ -61430,7 +61430,7 @@
         <v>23</v>
       </c>
       <c r="DL141" s="1">
-        <v>0.00037005206104367971</v>
+        <v>0.00037005206104367972</v>
       </c>
       <c r="DM141" s="1">
         <v>5</v>
@@ -61475,7 +61475,7 @@
         <v>-0.081701397895812988</v>
       </c>
       <c r="EA141" s="1">
-        <v>0.30153456330299377</v>
+        <v>0.30153456330299378</v>
       </c>
       <c r="EB141" s="1">
         <v>-0.27086597681045532</v>
@@ -61484,7 +61484,7 @@
         <v>-0.0816754549741745</v>
       </c>
       <c r="ED141" s="1">
-        <v>0.30153456330299377</v>
+        <v>0.30153456330299378</v>
       </c>
       <c r="EE141" s="1">
         <v>-0.27086597681045532</v>
@@ -61493,7 +61493,7 @@
         <v>-0.0816754549741745</v>
       </c>
       <c r="EG141" s="1">
-        <v>0.30153456330299377</v>
+        <v>0.30153456330299378</v>
       </c>
       <c r="EH141" s="1">
         <v>0</v>
@@ -61942,7 +61942,7 @@
         <v>1</v>
       </c>
       <c r="EM142" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="143">
@@ -62340,7 +62340,7 @@
         <v>4.8220047950744629</v>
       </c>
       <c r="EB143" s="1">
-        <v>-0.094540871679782867</v>
+        <v>-0.094540871679782868</v>
       </c>
       <c r="EC143" s="1">
         <v>-0.45573636889457703</v>
@@ -62501,7 +62501,7 @@
         <v>-7.373405933380127</v>
       </c>
       <c r="AP144" s="1">
-        <v>8.0482397079467773</v>
+        <v>8.0482397079467774</v>
       </c>
       <c r="AQ144" s="1">
         <v>3.1700100898742676</v>
@@ -62627,10 +62627,10 @@
         <v>0</v>
       </c>
       <c r="CF144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH144" s="1">
         <v>0</v>
@@ -62639,7 +62639,7 @@
         <v>0</v>
       </c>
       <c r="CJ144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK144" s="1">
         <v>0</v>
@@ -62774,7 +62774,7 @@
         <v>-1.1280159950256348</v>
       </c>
       <c r="EC144" s="1">
-        <v>-2.360450267791748</v>
+        <v>-2.3604502677917481</v>
       </c>
       <c r="ED144" s="1">
         <v>2.0925681591033936</v>
@@ -62789,7 +62789,7 @@
         <v>2.5388689041137695</v>
       </c>
       <c r="EH144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI144" s="1">
         <v>0</v>
@@ -63276,13 +63276,13 @@
         <v>0.42018970847129822</v>
       </c>
       <c r="M146" s="1">
-        <v>0.0048801619559526443</v>
+        <v>0.0048801619559526444</v>
       </c>
       <c r="N146" s="1">
         <v>0.05098472535610199</v>
       </c>
       <c r="O146" s="1">
-        <v>0.007249888963997364</v>
+        <v>0.0072498889639973641</v>
       </c>
       <c r="P146" s="1">
         <v>14</v>
@@ -63381,7 +63381,7 @@
         <v>0.57030314207077026</v>
       </c>
       <c r="AV146" s="1">
-        <v>-1.9182122945785522</v>
+        <v>-1.9182122945785523</v>
       </c>
       <c r="AW146" s="1">
         <v>0.56646299362182617</v>
@@ -63579,7 +63579,7 @@
         <v>11</v>
       </c>
       <c r="DJ146" s="1">
-        <v>0.0048801619559526443</v>
+        <v>0.0048801619559526444</v>
       </c>
       <c r="DK146" s="1">
         <v>11</v>
@@ -63591,7 +63591,7 @@
         <v>3</v>
       </c>
       <c r="DN146" s="1">
-        <v>0.007249888963997364</v>
+        <v>0.0072498889639973641</v>
       </c>
       <c r="DO146" s="1">
         <v>14</v>
@@ -63818,7 +63818,7 @@
         <v>-0.1929081529378891</v>
       </c>
       <c r="AX147" s="1">
-        <v>5.3194046020507812</v>
+        <v>5.3194046020507813</v>
       </c>
       <c r="AY147" s="1">
         <v>10.350805282592773</v>
@@ -64051,7 +64051,7 @@
         <v>0.11184528470039368</v>
       </c>
       <c r="DY147" s="1">
-        <v>-0.3667876124382019</v>
+        <v>-0.36678761243820191</v>
       </c>
       <c r="DZ147" s="1">
         <v>-0.23083232343196869</v>
@@ -64544,10 +64544,10 @@
         <v>1</v>
       </c>
       <c r="F149" s="1">
-        <v>-0.0077006071805953979</v>
+        <v>-0.007700607180595398</v>
       </c>
       <c r="G149" s="1">
-        <v>-0.035097960382699966</v>
+        <v>-0.035097960382699967</v>
       </c>
       <c r="H149" s="1">
         <v>-0.96932262182235718</v>
@@ -64915,7 +64915,7 @@
         <v>-0.51099753379821777</v>
       </c>
       <c r="EA149" s="1">
-        <v>0.9479033350944519</v>
+        <v>0.94790333509445191</v>
       </c>
       <c r="EB149" s="1">
         <v>-0.53908193111419678</v>
@@ -64924,7 +64924,7 @@
         <v>-0.51099753379821777</v>
       </c>
       <c r="ED149" s="1">
-        <v>0.9479033350944519</v>
+        <v>0.94790333509445191</v>
       </c>
       <c r="EE149" s="1">
         <v>-0.53908193111419678</v>
@@ -64933,7 +64933,7 @@
         <v>-0.51099753379821777</v>
       </c>
       <c r="EG149" s="1">
-        <v>0.9479033350944519</v>
+        <v>0.94790333509445191</v>
       </c>
       <c r="EH149" s="1">
         <v>0</v>
@@ -65049,7 +65049,7 @@
         <v>-0.31422507762908936</v>
       </c>
       <c r="AF150" s="1">
-        <v>-0.42450901865959167</v>
+        <v>-0.42450901865959168</v>
       </c>
       <c r="AG150" s="1">
         <v>-0.30876165628433228</v>
@@ -65073,7 +65073,7 @@
         <v>-0.32354435324668884</v>
       </c>
       <c r="AN150" s="1">
-        <v>-0.42450901865959167</v>
+        <v>-0.42450901865959168</v>
       </c>
       <c r="AO150" s="1">
         <v>-0.32704523205757141</v>
@@ -65097,7 +65097,7 @@
         <v>-0.32354435324668884</v>
       </c>
       <c r="AV150" s="1">
-        <v>-0.42450901865959167</v>
+        <v>-0.42450901865959168</v>
       </c>
       <c r="AW150" s="1">
         <v>-0.32704523205757141</v>
@@ -65106,7 +65106,7 @@
         <v>6.5998339653015137</v>
       </c>
       <c r="AY150" s="1">
-        <v>6.735328197479248</v>
+        <v>6.7353281974792481</v>
       </c>
       <c r="AZ150" s="1">
         <v>6.7264828681945801</v>
@@ -65205,10 +65205,10 @@
         <v>1</v>
       </c>
       <c r="CF150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH150" s="1">
         <v>0</v>
@@ -65217,7 +65217,7 @@
         <v>0</v>
       </c>
       <c r="CJ150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK150" s="1">
         <v>0</v>
@@ -65367,13 +65367,13 @@
         <v>0.72545909881591797</v>
       </c>
       <c r="EH150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI150" s="1">
         <v>1</v>
       </c>
       <c r="EJ150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK150" s="1">
         <v>0</v>
@@ -65402,7 +65402,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="1">
-        <v>0.00037300298572517931</v>
+        <v>0.00037300298572517932</v>
       </c>
       <c r="G151" s="1">
         <v>0.00013363199832383543</v>
@@ -65486,7 +65486,7 @@
         <v>-0.45180103182792664</v>
       </c>
       <c r="AH151" s="1">
-        <v>1.7230136394500732</v>
+        <v>1.7230136394500733</v>
       </c>
       <c r="AI151" s="1">
         <v>2.6588647365570068</v>
@@ -65887,7 +65887,7 @@
         <v>4</v>
       </c>
       <c r="Z152" s="1">
-        <v>1.1785347461700439</v>
+        <v>1.178534746170044</v>
       </c>
       <c r="AA152" s="1">
         <v>1.3059828281402588</v>
@@ -65929,7 +65929,7 @@
         <v>-0.42947608232498169</v>
       </c>
       <c r="AN152" s="1">
-        <v>-0.47629761695861816</v>
+        <v>-0.47629761695861817</v>
       </c>
       <c r="AO152" s="1">
         <v>-0.42947551608085632</v>
@@ -65947,10 +65947,10 @@
         <v>-2.2310643196105957</v>
       </c>
       <c r="AT152" s="1">
-        <v>1.1792904138565063</v>
+        <v>1.1792904138565064</v>
       </c>
       <c r="AU152" s="1">
-        <v>-0.42947381734848022</v>
+        <v>-0.42947381734848023</v>
       </c>
       <c r="AV152" s="1">
         <v>-0.47629651427268982</v>
@@ -66192,7 +66192,7 @@
         <v>0.26721307635307312</v>
       </c>
       <c r="DY152" s="1">
-        <v>-0.58672016859054565</v>
+        <v>-0.58672016859054566</v>
       </c>
       <c r="DZ152" s="1">
         <v>-0.52946341037750244</v>
@@ -66389,7 +66389,7 @@
         <v>9.4015712738037109</v>
       </c>
       <c r="AY153" s="1">
-        <v>12.508132934570312</v>
+        <v>12.508132934570313</v>
       </c>
       <c r="AZ153" s="1">
         <v>14.454631805419922</v>
@@ -66628,7 +66628,7 @@
         <v>0.3648812472820282</v>
       </c>
       <c r="EB153" s="1">
-        <v>-5.2454895973205566</v>
+        <v>-5.2454895973205567</v>
       </c>
       <c r="EC153" s="1">
         <v>-1.4951328039169312</v>
@@ -66661,7 +66661,7 @@
         <v>0</v>
       </c>
       <c r="EM153" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="154">
@@ -66810,7 +66810,7 @@
         <v>-1.1461446285247803</v>
       </c>
       <c r="AW154" s="1">
-        <v>-0.29166057705879211</v>
+        <v>-0.29166057705879212</v>
       </c>
       <c r="AX154" s="1">
         <v>11.822643280029297</v>
@@ -67108,7 +67108,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="1">
-        <v>6.2000000689010903e-09</v>
+        <v>6.2000000689010904e-09</v>
       </c>
       <c r="G155" s="1">
         <v>2.210000005220536e-08</v>
@@ -67198,10 +67198,10 @@
         <v>6.8552656173706055</v>
       </c>
       <c r="AJ155" s="1">
-        <v>-0.07585618644952774</v>
+        <v>-0.075856186449527741</v>
       </c>
       <c r="AK155" s="1">
-        <v>-0.07585618644952774</v>
+        <v>-0.075856186449527741</v>
       </c>
       <c r="AL155" s="1">
         <v>2.6152346134185791</v>
@@ -67479,7 +67479,7 @@
         <v>-29.225685119628906</v>
       </c>
       <c r="EA155" s="1">
-        <v>0.38290697336196899</v>
+        <v>0.382906973361969</v>
       </c>
       <c r="EB155" s="1">
         <v>-90.371871948242188</v>
@@ -67637,7 +67637,7 @@
         <v>-0.61415982246398926</v>
       </c>
       <c r="AN156" s="1">
-        <v>-0.64930939674377441</v>
+        <v>-0.64930939674377442</v>
       </c>
       <c r="AO156" s="1">
         <v>-0.61415982246398926</v>
@@ -67661,7 +67661,7 @@
         <v>-0.61415982246398926</v>
       </c>
       <c r="AV156" s="1">
-        <v>-0.64930939674377441</v>
+        <v>-0.64930939674377442</v>
       </c>
       <c r="AW156" s="1">
         <v>-0.61415982246398926</v>
@@ -68038,7 +68038,7 @@
         <v>-3.6156485080718994</v>
       </c>
       <c r="AD157" s="1">
-        <v>0.2076423168182373</v>
+        <v>0.20764231681823731</v>
       </c>
       <c r="AE157" s="1">
         <v>-0.055307552218437195</v>
@@ -68412,7 +68412,7 @@
         <v>1.3300000207064344e-12</v>
       </c>
       <c r="K158" s="1">
-        <v>0.72105014324188232</v>
+        <v>0.72105014324188233</v>
       </c>
       <c r="L158" s="1">
         <v>2.8439559936523438</v>
@@ -68672,7 +68672,7 @@
         <v>220</v>
       </c>
       <c r="CU158" s="1">
-        <v>0.72105014324188232</v>
+        <v>0.72105014324188233</v>
       </c>
       <c r="CV158" s="1">
         <v>2.8439559936523438</v>
@@ -68705,7 +68705,7 @@
         <v>1</v>
       </c>
       <c r="DF158" s="1">
-        <v>0.72105014324188232</v>
+        <v>0.72105014324188233</v>
       </c>
       <c r="DG158" s="1">
         <v>1</v>
@@ -68735,7 +68735,7 @@
         <v>1</v>
       </c>
       <c r="DP158" s="1">
-        <v>0.72105014324188232</v>
+        <v>0.72105014324188233</v>
       </c>
       <c r="DQ158" s="1">
         <v>1</v>
@@ -68786,7 +68786,7 @@
         <v>-14.026002883911133</v>
       </c>
       <c r="EG158" s="1">
-        <v>0.34443697333335876</v>
+        <v>0.34443697333335877</v>
       </c>
       <c r="EH158" s="1">
         <v>1</v>
@@ -68839,7 +68839,7 @@
         <v>-0.0017275649588555098</v>
       </c>
       <c r="K159" s="1">
-        <v>0.39061886072158813</v>
+        <v>0.39061886072158814</v>
       </c>
       <c r="L159" s="1">
         <v>0.54799866676330566</v>
@@ -68887,7 +68887,7 @@
         <v>0.8731539249420166</v>
       </c>
       <c r="AA159" s="1">
-        <v>1.6751785278320312</v>
+        <v>1.6751785278320313</v>
       </c>
       <c r="AB159" s="1">
         <v>-2.6788957118988037</v>
@@ -68911,7 +68911,7 @@
         <v>0.8731539249420166</v>
       </c>
       <c r="AI159" s="1">
-        <v>1.6751785278320312</v>
+        <v>1.6751785278320313</v>
       </c>
       <c r="AJ159" s="1">
         <v>-2.733210563659668</v>
@@ -68935,7 +68935,7 @@
         <v>0.8731539249420166</v>
       </c>
       <c r="AQ159" s="1">
-        <v>1.6751785278320312</v>
+        <v>1.6751785278320313</v>
       </c>
       <c r="AR159" s="1">
         <v>-2.7414963245391846</v>
@@ -69097,7 +69097,7 @@
         <v>174</v>
       </c>
       <c r="CU159" s="1">
-        <v>0.39061886072158813</v>
+        <v>0.39061886072158814</v>
       </c>
       <c r="CV159" s="1">
         <v>0.54799866676330566</v>
@@ -69130,7 +69130,7 @@
         <v>1</v>
       </c>
       <c r="DF159" s="1">
-        <v>0.39061886072158813</v>
+        <v>0.39061886072158814</v>
       </c>
       <c r="DG159" s="1">
         <v>1</v>
@@ -69160,7 +69160,7 @@
         <v>1</v>
       </c>
       <c r="DP159" s="1">
-        <v>0.39061886072158813</v>
+        <v>0.39061886072158814</v>
       </c>
       <c r="DQ159" s="1">
         <v>1</v>
@@ -69187,7 +69187,7 @@
         <v>0.18957813084125519</v>
       </c>
       <c r="DY159" s="1">
-        <v>-0.62532424926757812</v>
+        <v>-0.62532424926757813</v>
       </c>
       <c r="DZ159" s="1">
         <v>-0.32593801617622375</v>
@@ -69730,7 +69730,7 @@
         <v>4</v>
       </c>
       <c r="Z161" s="1">
-        <v>3.8659744262695312</v>
+        <v>3.8659744262695313</v>
       </c>
       <c r="AA161" s="1">
         <v>0.10891297459602356</v>
@@ -69775,7 +69775,7 @@
         <v>-0.02901395782828331</v>
       </c>
       <c r="AO161" s="1">
-        <v>-4.1391205787658691</v>
+        <v>-4.1391205787658692</v>
       </c>
       <c r="AP161" s="1">
         <v>6.8256831169128418</v>
@@ -69805,7 +69805,7 @@
         <v>-6.0187702178955078</v>
       </c>
       <c r="AY161" s="1">
-        <v>-9.4796524047851562</v>
+        <v>-9.4796524047851563</v>
       </c>
       <c r="AZ161" s="1">
         <v>-12.980402946472168</v>
@@ -70113,10 +70113,10 @@
         <v>-1.1185053586959839</v>
       </c>
       <c r="J162" s="1">
-        <v>-2.3300000229938955e-19</v>
+        <v>-2.3300000229938956e-19</v>
       </c>
       <c r="K162" s="1">
-        <v>0.81953734159469604</v>
+        <v>0.81953734159469605</v>
       </c>
       <c r="L162" s="1">
         <v>0.74536281824111938</v>
@@ -70370,7 +70370,7 @@
         <v>220</v>
       </c>
       <c r="CU162" s="1">
-        <v>0.81953734159469604</v>
+        <v>0.81953734159469605</v>
       </c>
       <c r="CV162" s="1">
         <v>0.74536281824111938</v>
@@ -70403,7 +70403,7 @@
         <v>1</v>
       </c>
       <c r="DF162" s="1">
-        <v>0.81953734159469604</v>
+        <v>0.81953734159469605</v>
       </c>
       <c r="DG162" s="1">
         <v>1</v>
@@ -70433,7 +70433,7 @@
         <v>1</v>
       </c>
       <c r="DP162" s="1">
-        <v>0.81953734159469604</v>
+        <v>0.81953734159469605</v>
       </c>
       <c r="DQ162" s="1">
         <v>1</v>
@@ -71312,7 +71312,7 @@
         <v>0.47449037432670593</v>
       </c>
       <c r="DY164" s="1">
-        <v>87.191787719726562</v>
+        <v>87.191787719726563</v>
       </c>
       <c r="DZ164" s="1">
         <v>43.668888092041016</v>
@@ -71380,7 +71380,7 @@
         <v>0.0032913358882069588</v>
       </c>
       <c r="H165" s="1">
-        <v>-0.88307106494903564</v>
+        <v>-0.88307106494903565</v>
       </c>
       <c r="I165" s="1">
         <v>-1.420066237449646</v>
@@ -71395,7 +71395,7 @@
         <v>0.55094486474990845</v>
       </c>
       <c r="M165" s="1">
-        <v>0.25371313095092773</v>
+        <v>0.25371313095092774</v>
       </c>
       <c r="N165" s="1">
         <v>0.18075905740261078</v>
@@ -71539,7 +71539,7 @@
         <v>1</v>
       </c>
       <c r="BI165" s="1">
-        <v>-0.88307106494903564</v>
+        <v>-0.88307106494903565</v>
       </c>
       <c r="BJ165" s="1">
         <v>-1.420066237449646</v>
@@ -71655,7 +71655,7 @@
         <v>0.55094486474990845</v>
       </c>
       <c r="CW165" s="1">
-        <v>-0.88307106494903564</v>
+        <v>-0.88307106494903565</v>
       </c>
       <c r="CX165" s="1">
         <v>-1.420066237449646</v>
@@ -71694,7 +71694,7 @@
         <v>6</v>
       </c>
       <c r="DJ165" s="1">
-        <v>0.25371313095092773</v>
+        <v>0.25371313095092774</v>
       </c>
       <c r="DK165" s="1">
         <v>6</v>
@@ -71724,7 +71724,7 @@
         <v>1</v>
       </c>
       <c r="DT165" s="1">
-        <v>-0.88307106494903564</v>
+        <v>-0.88307106494903565</v>
       </c>
       <c r="DU165" s="1">
         <v>1</v>
@@ -71864,13 +71864,13 @@
         <v>2.3735237121582031</v>
       </c>
       <c r="AA166" s="1">
-        <v>2.4634318351745605</v>
+        <v>2.4634318351745606</v>
       </c>
       <c r="AB166" s="1">
-        <v>-0.46199947595596313</v>
+        <v>-0.46199947595596314</v>
       </c>
       <c r="AC166" s="1">
-        <v>-0.46199947595596313</v>
+        <v>-0.46199947595596314</v>
       </c>
       <c r="AD166" s="1">
         <v>2.363621711730957</v>
@@ -71882,19 +71882,19 @@
         <v>-3.0578517913818359</v>
       </c>
       <c r="AG166" s="1">
-        <v>-2.9664533138275146</v>
+        <v>-2.9664533138275147</v>
       </c>
       <c r="AH166" s="1">
         <v>2.3735237121582031</v>
       </c>
       <c r="AI166" s="1">
-        <v>2.4634318351745605</v>
+        <v>2.4634318351745606</v>
       </c>
       <c r="AJ166" s="1">
-        <v>-0.46199947595596313</v>
+        <v>-0.46199947595596314</v>
       </c>
       <c r="AK166" s="1">
-        <v>-0.46199947595596313</v>
+        <v>-0.46199947595596314</v>
       </c>
       <c r="AL166" s="1">
         <v>2.363621711730957</v>
@@ -71906,19 +71906,19 @@
         <v>-3.0578517913818359</v>
       </c>
       <c r="AO166" s="1">
-        <v>-2.9664533138275146</v>
+        <v>-2.9664533138275147</v>
       </c>
       <c r="AP166" s="1">
         <v>2.3735237121582031</v>
       </c>
       <c r="AQ166" s="1">
-        <v>2.4634318351745605</v>
+        <v>2.4634318351745606</v>
       </c>
       <c r="AR166" s="1">
-        <v>-0.46199947595596313</v>
+        <v>-0.46199947595596314</v>
       </c>
       <c r="AS166" s="1">
-        <v>-0.46199947595596313</v>
+        <v>-0.46199947595596314</v>
       </c>
       <c r="AT166" s="1">
         <v>2.363621711730957</v>
@@ -71930,7 +71930,7 @@
         <v>-3.0578517913818359</v>
       </c>
       <c r="AW166" s="1">
-        <v>-2.9664533138275146</v>
+        <v>-2.9664533138275147</v>
       </c>
       <c r="AX166" s="1">
         <v>3.6392722129821777</v>
@@ -72173,7 +72173,7 @@
         <v>-5.3321094512939453</v>
       </c>
       <c r="DZ166" s="1">
-        <v>-5.1375031471252441</v>
+        <v>-5.1375031471252442</v>
       </c>
       <c r="EA166" s="1">
         <v>0.96350288391113281</v>
@@ -72182,7 +72182,7 @@
         <v>-5.3321094512939453</v>
       </c>
       <c r="EC166" s="1">
-        <v>-5.1375031471252441</v>
+        <v>-5.1375031471252442</v>
       </c>
       <c r="ED166" s="1">
         <v>0.96350288391113281</v>
@@ -72191,7 +72191,7 @@
         <v>-5.3321094512939453</v>
       </c>
       <c r="EF166" s="1">
-        <v>-5.1375031471252441</v>
+        <v>-5.1375031471252442</v>
       </c>
       <c r="EG166" s="1">
         <v>0.96350288391113281</v>
@@ -72250,7 +72250,7 @@
         <v>0.62558043003082275</v>
       </c>
       <c r="L167" s="1">
-        <v>3.7992932796478271</v>
+        <v>3.7992932796478272</v>
       </c>
       <c r="M167" s="1">
         <v>0.42982068657875061</v>
@@ -72352,10 +72352,10 @@
         <v>1.0641862154006958</v>
       </c>
       <c r="AT167" s="1">
-        <v>3.3760452270507812</v>
+        <v>3.3760452270507813</v>
       </c>
       <c r="AU167" s="1">
-        <v>-2.0020356178283691</v>
+        <v>-2.0020356178283692</v>
       </c>
       <c r="AV167" s="1">
         <v>-7.7455253601074219</v>
@@ -72510,7 +72510,7 @@
         <v>0.62558043003082275</v>
       </c>
       <c r="CV167" s="1">
-        <v>3.7992932796478271</v>
+        <v>3.7992932796478272</v>
       </c>
       <c r="CW167" s="1">
         <v>-0.46644020080566406</v>
@@ -72546,7 +72546,7 @@
         <v>1</v>
       </c>
       <c r="DH167" s="1">
-        <v>3.7992932796478271</v>
+        <v>3.7992932796478272</v>
       </c>
       <c r="DI167" s="1">
         <v>4</v>
@@ -72576,7 +72576,7 @@
         <v>1</v>
       </c>
       <c r="DR167" s="1">
-        <v>3.7992932796478271</v>
+        <v>3.7992932796478272</v>
       </c>
       <c r="DS167" s="1">
         <v>4</v>
@@ -72618,7 +72618,7 @@
         <v>12.273637771606445</v>
       </c>
       <c r="EF167" s="1">
-        <v>3.1724457740783691</v>
+        <v>3.1724457740783692</v>
       </c>
       <c r="EG167" s="1">
         <v>0.25847640633583069</v>
@@ -72639,7 +72639,7 @@
         <v>0</v>
       </c>
       <c r="EM167" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="168">
@@ -73601,10 +73601,10 @@
         <v>0.76774585247039795</v>
       </c>
       <c r="AJ170" s="1">
-        <v>-1.8132543563842773</v>
+        <v>-1.8132543563842774</v>
       </c>
       <c r="AK170" s="1">
-        <v>-1.8132543563842773</v>
+        <v>-1.8132543563842774</v>
       </c>
       <c r="AL170" s="1">
         <v>1.4533240795135498</v>
@@ -73637,7 +73637,7 @@
         <v>-0.58970344066619873</v>
       </c>
       <c r="AV170" s="1">
-        <v>-0.34394869208335876</v>
+        <v>-0.34394869208335877</v>
       </c>
       <c r="AW170" s="1">
         <v>-0.58968657255172729</v>
@@ -73894,7 +73894,7 @@
         <v>1.8929973840713501</v>
       </c>
       <c r="EE170" s="1">
-        <v>-0.46730190515518188</v>
+        <v>-0.46730190515518189</v>
       </c>
       <c r="EF170" s="1">
         <v>-0.80075842142105103</v>
@@ -73941,7 +73941,7 @@
         <v>-0.046325709670782089</v>
       </c>
       <c r="G171" s="1">
-        <v>-0.034599307924509048</v>
+        <v>-0.034599307924509049</v>
       </c>
       <c r="H171" s="1">
         <v>-0.9256928563117981</v>
@@ -74007,7 +74007,7 @@
         <v>-0.53322726488113403</v>
       </c>
       <c r="AC171" s="1">
-        <v>-0.68915927410125732</v>
+        <v>-0.68915927410125733</v>
       </c>
       <c r="AD171" s="1">
         <v>2.3633453845977783</v>
@@ -74031,7 +74031,7 @@
         <v>-0.33713790774345398</v>
       </c>
       <c r="AK171" s="1">
-        <v>-0.68915927410125732</v>
+        <v>-0.68915927410125733</v>
       </c>
       <c r="AL171" s="1">
         <v>2.3633453845977783</v>
@@ -74055,7 +74055,7 @@
         <v>-0.30123248696327209</v>
       </c>
       <c r="AS171" s="1">
-        <v>-0.68915927410125732</v>
+        <v>-0.68915927410125733</v>
       </c>
       <c r="AT171" s="1">
         <v>2.3633453845977783</v>
@@ -74804,7 +74804,7 @@
         <v>-1.1818603277206421</v>
       </c>
       <c r="J173" s="1">
-        <v>-1.8600000459224121e-16</v>
+        <v>-1.8600000459224122e-16</v>
       </c>
       <c r="K173" s="1">
         <v>0.38621252775192261</v>
@@ -75170,7 +75170,7 @@
         <v>2.9614174365997314</v>
       </c>
       <c r="EB173" s="1">
-        <v>-0.12817241251468658</v>
+        <v>-0.12817241251468659</v>
       </c>
       <c r="EC173" s="1">
         <v>-0.37957203388214111</v>
@@ -75179,7 +75179,7 @@
         <v>2.9614176750183105</v>
       </c>
       <c r="EE173" s="1">
-        <v>-0.12817241251468658</v>
+        <v>-0.12817241251468659</v>
       </c>
       <c r="EF173" s="1">
         <v>-0.37957203388214111</v>
@@ -75752,7 +75752,7 @@
         <v>-0.8341820240020752</v>
       </c>
       <c r="AN175" s="1">
-        <v>-1.8972316980361938</v>
+        <v>-1.8972316980361939</v>
       </c>
       <c r="AO175" s="1">
         <v>-0.84100562334060669</v>
@@ -75776,7 +75776,7 @@
         <v>-0.8341820240020752</v>
       </c>
       <c r="AV175" s="1">
-        <v>-1.8972316980361938</v>
+        <v>-1.8972316980361939</v>
       </c>
       <c r="AW175" s="1">
         <v>-0.84100562334060669</v>
@@ -76149,7 +76149,7 @@
         <v>-1.10085129737854</v>
       </c>
       <c r="AF176" s="1">
-        <v>-0.33797073364257812</v>
+        <v>-0.33797073364257813</v>
       </c>
       <c r="AG176" s="1">
         <v>-1.1126159429550171</v>
@@ -76203,7 +76203,7 @@
         <v>-1.1126159429550171</v>
       </c>
       <c r="AX176" s="1">
-        <v>0.90087342262268066</v>
+        <v>0.90087342262268067</v>
       </c>
       <c r="AY176" s="1">
         <v>1.2707023620605469</v>
@@ -76630,7 +76630,7 @@
         <v>3.0224349498748779</v>
       </c>
       <c r="AX177" s="1">
-        <v>56.818374633789062</v>
+        <v>56.818374633789063</v>
       </c>
       <c r="AY177" s="1">
         <v>82.35748291015625</v>
@@ -77015,22 +77015,22 @@
         <v>1.9492404460906982</v>
       </c>
       <c r="AJ178" s="1">
-        <v>-2.0240700244903564</v>
+        <v>-2.0240700244903565</v>
       </c>
       <c r="AK178" s="1">
-        <v>-2.0240700244903564</v>
+        <v>-2.0240700244903565</v>
       </c>
       <c r="AL178" s="1">
         <v>1.3172781467437744</v>
       </c>
       <c r="AM178" s="1">
-        <v>-0.46979141235351562</v>
+        <v>-0.46979141235351563</v>
       </c>
       <c r="AN178" s="1">
-        <v>-0.6951720118522644</v>
+        <v>-0.69517201185226441</v>
       </c>
       <c r="AO178" s="1">
-        <v>-0.46979063749313354</v>
+        <v>-0.46979063749313355</v>
       </c>
       <c r="AP178" s="1">
         <v>1.3172836303710938</v>
@@ -77412,10 +77412,10 @@
         <v>4</v>
       </c>
       <c r="Z179" s="1">
-        <v>2.5732338428497314</v>
+        <v>2.5732338428497315</v>
       </c>
       <c r="AA179" s="1">
-        <v>3.4570379257202148</v>
+        <v>3.4570379257202149</v>
       </c>
       <c r="AB179" s="1">
         <v>0.0036883512511849403</v>
@@ -77436,7 +77436,7 @@
         <v>-1.6555677652359009</v>
       </c>
       <c r="AH179" s="1">
-        <v>2.5732338428497314</v>
+        <v>2.5732338428497315</v>
       </c>
       <c r="AI179" s="1">
         <v>3.8966658115386963</v>
@@ -77460,7 +77460,7 @@
         <v>-1.6555677652359009</v>
       </c>
       <c r="AP179" s="1">
-        <v>2.5732338428497314</v>
+        <v>2.5732338428497315</v>
       </c>
       <c r="AQ179" s="1">
         <v>4.0832924842834473</v>
@@ -77735,7 +77735,7 @@
         <v>0.66036808490753174</v>
       </c>
       <c r="EE179" s="1">
-        <v>-283.27859497070312</v>
+        <v>-283.27859497070313</v>
       </c>
       <c r="EF179" s="1">
         <v>-178.51820373535156</v>
@@ -77857,7 +77857,7 @@
         <v>-0.5166047215461731</v>
       </c>
       <c r="AF180" s="1">
-        <v>-0.35441505908966064</v>
+        <v>-0.35441505908966065</v>
       </c>
       <c r="AG180" s="1">
         <v>-0.51659613847732544</v>
@@ -78269,7 +78269,7 @@
         <v>2.6938059329986572</v>
       </c>
       <c r="AA181" s="1">
-        <v>7.7697062492370605</v>
+        <v>7.7697062492370606</v>
       </c>
       <c r="AB181" s="1">
         <v>0.055252842605113983</v>
@@ -78335,7 +78335,7 @@
         <v>-4.101536750793457</v>
       </c>
       <c r="AW181" s="1">
-        <v>-1.4230953454971313</v>
+        <v>-1.4230953454971314</v>
       </c>
       <c r="AX181" s="1">
         <v>11.855875015258789</v>
@@ -78577,7 +78577,7 @@
         <v>48.754161834716797</v>
       </c>
       <c r="EA181" s="1">
-        <v>0.34670627117156982</v>
+        <v>0.34670627117156983</v>
       </c>
       <c r="EB181" s="1">
         <v>128.69540405273438</v>
@@ -78639,7 +78639,7 @@
         <v>0.0039747380651533604</v>
       </c>
       <c r="H182" s="1">
-        <v>-0.89028692245483398</v>
+        <v>-0.89028692245483399</v>
       </c>
       <c r="I182" s="1">
         <v>-1.2534279823303223</v>
@@ -78648,7 +78648,7 @@
         <v>-0.00096905900863930583</v>
       </c>
       <c r="K182" s="1">
-        <v>0.65977925062179565</v>
+        <v>0.65977925062179566</v>
       </c>
       <c r="L182" s="1">
         <v>0.38287031650543213</v>
@@ -78798,7 +78798,7 @@
         <v>1</v>
       </c>
       <c r="BI182" s="1">
-        <v>-0.89028692245483398</v>
+        <v>-0.89028692245483399</v>
       </c>
       <c r="BJ182" s="1">
         <v>-1.2534279823303223</v>
@@ -78908,13 +78908,13 @@
         <v>220</v>
       </c>
       <c r="CU182" s="1">
-        <v>0.65977925062179565</v>
+        <v>0.65977925062179566</v>
       </c>
       <c r="CV182" s="1">
         <v>0.38287031650543213</v>
       </c>
       <c r="CW182" s="1">
-        <v>-0.89028692245483398</v>
+        <v>-0.89028692245483399</v>
       </c>
       <c r="CX182" s="1">
         <v>-1.2534279823303223</v>
@@ -78941,7 +78941,7 @@
         <v>1</v>
       </c>
       <c r="DF182" s="1">
-        <v>0.65977925062179565</v>
+        <v>0.65977925062179566</v>
       </c>
       <c r="DG182" s="1">
         <v>1</v>
@@ -78971,7 +78971,7 @@
         <v>1</v>
       </c>
       <c r="DP182" s="1">
-        <v>0.65977925062179565</v>
+        <v>0.65977925062179566</v>
       </c>
       <c r="DQ182" s="1">
         <v>1</v>
@@ -78983,7 +78983,7 @@
         <v>1</v>
       </c>
       <c r="DT182" s="1">
-        <v>-0.89028692245483398</v>
+        <v>-0.89028692245483399</v>
       </c>
       <c r="DU182" s="1">
         <v>1</v>
@@ -79004,7 +79004,7 @@
         <v>-0.79207611083984375</v>
       </c>
       <c r="EA182" s="1">
-        <v>0.93900525569915771</v>
+        <v>0.93900525569915772</v>
       </c>
       <c r="EB182" s="1">
         <v>-0.98029816150665283</v>
@@ -79866,7 +79866,7 @@
         <v>-0.57037687301635742</v>
       </c>
       <c r="EA184" s="1">
-        <v>0.40452492237091064</v>
+        <v>0.40452492237091065</v>
       </c>
       <c r="EB184" s="1">
         <v>-1.2137061357498169</v>
@@ -79875,7 +79875,7 @@
         <v>-0.49097439646720886</v>
       </c>
       <c r="ED184" s="1">
-        <v>0.40452492237091064</v>
+        <v>0.40452492237091065</v>
       </c>
       <c r="EE184" s="1">
         <v>-1.1856181621551514</v>
@@ -79884,7 +79884,7 @@
         <v>-0.4796120822429657</v>
       </c>
       <c r="EG184" s="1">
-        <v>0.40452492237091064</v>
+        <v>0.40452492237091065</v>
       </c>
       <c r="EH184" s="1">
         <v>0</v>
@@ -80428,13 +80428,13 @@
         <v>5.5056796073913574</v>
       </c>
       <c r="AE186" s="1">
-        <v>-5.3434219360351562</v>
+        <v>-5.3434219360351563</v>
       </c>
       <c r="AF186" s="1">
         <v>-10.723365783691406</v>
       </c>
       <c r="AG186" s="1">
-        <v>-5.0590424537658691</v>
+        <v>-5.0590424537658692</v>
       </c>
       <c r="AH186" s="1">
         <v>8.3592214584350586</v>
@@ -80859,7 +80859,7 @@
         <v>1.2207322120666504</v>
       </c>
       <c r="AE187" s="1">
-        <v>-0.37547594308853149</v>
+        <v>-0.3754759430885315</v>
       </c>
       <c r="AF187" s="1">
         <v>-0.78458714485168457</v>
@@ -80883,7 +80883,7 @@
         <v>1.2207322120666504</v>
       </c>
       <c r="AM187" s="1">
-        <v>-0.37547594308853149</v>
+        <v>-0.3754759430885315</v>
       </c>
       <c r="AN187" s="1">
         <v>-0.78458714485168457</v>
@@ -80907,7 +80907,7 @@
         <v>1.2207322120666504</v>
       </c>
       <c r="AU187" s="1">
-        <v>-0.37547594308853149</v>
+        <v>-0.3754759430885315</v>
       </c>
       <c r="AV187" s="1">
         <v>-0.78458714485168457</v>
@@ -80922,7 +80922,7 @@
         <v>5.1645708084106445</v>
       </c>
       <c r="AZ187" s="1">
-        <v>5.6703095436096191</v>
+        <v>5.6703095436096192</v>
       </c>
       <c r="BA187" s="1">
         <v>0</v>
@@ -81335,7 +81335,7 @@
         <v>-0.4963456392288208</v>
       </c>
       <c r="AT188" s="1">
-        <v>2.1839518547058105</v>
+        <v>2.1839518547058106</v>
       </c>
       <c r="AU188" s="1">
         <v>-1.2915042638778687</v>
@@ -82080,7 +82080,7 @@
         <v>-0.00028228398878127337</v>
       </c>
       <c r="G190" s="1">
-        <v>-4.3999998524668626e-06</v>
+        <v>-4.3999998524668627e-06</v>
       </c>
       <c r="H190" s="1">
         <v>-0.98239630460739136</v>
@@ -82149,7 +82149,7 @@
         <v>-3.2098922729492188</v>
       </c>
       <c r="AD190" s="1">
-        <v>0.5031248927116394</v>
+        <v>0.50312489271163941</v>
       </c>
       <c r="AE190" s="1">
         <v>-0.13857176899909973</v>
@@ -82595,7 +82595,7 @@
         <v>0.86743849515914917</v>
       </c>
       <c r="AI191" s="1">
-        <v>7.7285070419311523</v>
+        <v>7.7285070419311524</v>
       </c>
       <c r="AJ191" s="1">
         <v>-2.1852679252624512</v>
@@ -82939,7 +82939,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="1">
-        <v>-0.0042861639522016048</v>
+        <v>-0.0042861639522016049</v>
       </c>
       <c r="G192" s="1">
         <v>0.0023202560842037201</v>
@@ -83077,7 +83077,7 @@
         <v>3.775775671005249</v>
       </c>
       <c r="AZ192" s="1">
-        <v>3.5672061443328857</v>
+        <v>3.5672061443328858</v>
       </c>
       <c r="BA192" s="1">
         <v>0</v>
@@ -83376,7 +83376,7 @@
         <v>0.022422270849347115</v>
       </c>
       <c r="H193" s="1">
-        <v>-0.96360993385314941</v>
+        <v>-0.96360993385314942</v>
       </c>
       <c r="I193" s="1">
         <v>-1.1511156558990479</v>
@@ -83433,7 +83433,7 @@
         <v>1.2963660955429077</v>
       </c>
       <c r="AA193" s="1">
-        <v>5.8069672584533691</v>
+        <v>5.8069672584533692</v>
       </c>
       <c r="AB193" s="1">
         <v>-2.2973616123199463</v>
@@ -83535,7 +83535,7 @@
         <v>1</v>
       </c>
       <c r="BI193" s="1">
-        <v>-0.96360993385314941</v>
+        <v>-0.96360993385314942</v>
       </c>
       <c r="BJ193" s="1">
         <v>-1.1511156558990479</v>
@@ -83655,7 +83655,7 @@
         <v>0.3254418671131134</v>
       </c>
       <c r="CW193" s="1">
-        <v>-0.96360993385314941</v>
+        <v>-0.96360993385314942</v>
       </c>
       <c r="CX193" s="1">
         <v>-1.1511156558990479</v>
@@ -83724,7 +83724,7 @@
         <v>1</v>
       </c>
       <c r="DT193" s="1">
-        <v>-0.96360993385314941</v>
+        <v>-0.96360993385314942</v>
       </c>
       <c r="DU193" s="1">
         <v>1</v>
@@ -83867,10 +83867,10 @@
         <v>3.209338903427124</v>
       </c>
       <c r="AB194" s="1">
-        <v>-3.0750641822814941</v>
+        <v>-3.0750641822814942</v>
       </c>
       <c r="AC194" s="1">
-        <v>-3.0750641822814941</v>
+        <v>-3.0750641822814942</v>
       </c>
       <c r="AD194" s="1">
         <v>0.55959153175354004</v>
@@ -84301,10 +84301,10 @@
         <v>-2.3221011161804199</v>
       </c>
       <c r="AC195" s="1">
-        <v>-2.0180435180664062</v>
+        <v>-2.0180435180664063</v>
       </c>
       <c r="AD195" s="1">
-        <v>1.1413490772247314</v>
+        <v>1.1413490772247315</v>
       </c>
       <c r="AE195" s="1">
         <v>-0.3740447461605072</v>
@@ -84364,7 +84364,7 @@
         <v>-0.37503930926322937</v>
       </c>
       <c r="AX195" s="1">
-        <v>13.790542602539062</v>
+        <v>13.790542602539063</v>
       </c>
       <c r="AY195" s="1">
         <v>18.945158004760742</v>
@@ -84610,7 +84610,7 @@
         <v>0.18081113696098328</v>
       </c>
       <c r="EB195" s="1">
-        <v>-2.9846408367156982</v>
+        <v>-2.9846408367156983</v>
       </c>
       <c r="EC195" s="1">
         <v>-0.52998828887939453</v>
@@ -84681,7 +84681,7 @@
         <v>0.039260797202587128</v>
       </c>
       <c r="L196" s="1">
-        <v>0.69637525081634521</v>
+        <v>0.69637525081634522</v>
       </c>
       <c r="M196" s="1">
         <v>-0.0011437670327723026</v>
@@ -84723,7 +84723,7 @@
         <v>5</v>
       </c>
       <c r="Z196" s="1">
-        <v>0.50581121444702148</v>
+        <v>0.50581121444702149</v>
       </c>
       <c r="AA196" s="1">
         <v>8.62860107421875</v>
@@ -84750,7 +84750,7 @@
         <v>0.52470219135284424</v>
       </c>
       <c r="AI196" s="1">
-        <v>9.1550674438476562</v>
+        <v>9.1550674438476563</v>
       </c>
       <c r="AJ196" s="1">
         <v>-3.327401876449585</v>
@@ -84774,7 +84774,7 @@
         <v>0.52470219135284424</v>
       </c>
       <c r="AQ196" s="1">
-        <v>9.1550674438476562</v>
+        <v>9.1550674438476563</v>
       </c>
       <c r="AR196" s="1">
         <v>-3.4352591037750244</v>
@@ -84945,7 +84945,7 @@
         <v>0.039260797202587128</v>
       </c>
       <c r="CV196" s="1">
-        <v>0.69637525081634521</v>
+        <v>0.69637525081634522</v>
       </c>
       <c r="CW196" s="1">
         <v>-0.9220849871635437</v>
@@ -84981,7 +84981,7 @@
         <v>2</v>
       </c>
       <c r="DH196" s="1">
-        <v>0.69637525081634521</v>
+        <v>0.69637525081634522</v>
       </c>
       <c r="DI196" s="1">
         <v>63</v>
@@ -85011,7 +85011,7 @@
         <v>2</v>
       </c>
       <c r="DR196" s="1">
-        <v>0.69637525081634521</v>
+        <v>0.69637525081634522</v>
       </c>
       <c r="DS196" s="1">
         <v>1</v>
@@ -85032,7 +85032,7 @@
         <v>0.03832114115357399</v>
       </c>
       <c r="DY196" s="1">
-        <v>-3.1177740097045898</v>
+        <v>-3.1177740097045899</v>
       </c>
       <c r="DZ196" s="1">
         <v>-0.18276485800743103</v>
@@ -85074,7 +85074,7 @@
         <v>1</v>
       </c>
       <c r="EM196" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="197">
@@ -85163,7 +85163,7 @@
         <v>-0.79862302541732788</v>
       </c>
       <c r="AC197" s="1">
-        <v>-1.3904410600662231</v>
+        <v>-1.3904410600662232</v>
       </c>
       <c r="AD197" s="1">
         <v>2.2131204605102539</v>
@@ -85187,7 +85187,7 @@
         <v>-0.67463833093643188</v>
       </c>
       <c r="AK197" s="1">
-        <v>-1.3904410600662231</v>
+        <v>-1.3904410600662232</v>
       </c>
       <c r="AL197" s="1">
         <v>2.3213710784912109</v>
@@ -85211,7 +85211,7 @@
         <v>-0.67463833093643188</v>
       </c>
       <c r="AS197" s="1">
-        <v>-1.3904410600662231</v>
+        <v>-1.3904410600662232</v>
       </c>
       <c r="AT197" s="1">
         <v>2.3213710784912109</v>
@@ -85505,7 +85505,7 @@
         <v>0</v>
       </c>
       <c r="EM197" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="198">
@@ -85983,7 +85983,7 @@
         <v>0.0015150989638641477</v>
       </c>
       <c r="O199" s="1">
-        <v>0.042897354811429977</v>
+        <v>0.042897354811429978</v>
       </c>
       <c r="P199" s="1">
         <v>29</v>
@@ -86247,7 +86247,7 @@
         <v>-1.0213536024093628</v>
       </c>
       <c r="CY199" s="1">
-        <v>0.042897354811429977</v>
+        <v>0.042897354811429978</v>
       </c>
       <c r="CZ199" s="1">
         <v>2</v>
@@ -86292,7 +86292,7 @@
         <v>4</v>
       </c>
       <c r="DN199" s="1">
-        <v>0.042897354811429977</v>
+        <v>0.042897354811429978</v>
       </c>
       <c r="DO199" s="1">
         <v>29</v>
@@ -86468,7 +86468,7 @@
         <v>-2.9079205989837646</v>
       </c>
       <c r="AG200" s="1">
-        <v>-0.78989702463150024</v>
+        <v>-0.78989702463150025</v>
       </c>
       <c r="AH200" s="1">
         <v>4.3483080863952637</v>
@@ -86756,7 +86756,7 @@
         <v>-1.8044017553329468</v>
       </c>
       <c r="EA200" s="1">
-        <v>0.29574993252754211</v>
+        <v>0.29574993252754212</v>
       </c>
       <c r="EB200" s="1">
         <v>-6.1011061668395996</v>
@@ -86893,7 +86893,7 @@
         <v>-2.2051563262939453</v>
       </c>
       <c r="AG201" s="1">
-        <v>-0.25695562362670898</v>
+        <v>-0.25695562362670899</v>
       </c>
       <c r="AH201" s="1">
         <v>0.81248492002487183</v>
@@ -87202,7 +87202,7 @@
         <v>-2.3263375759124756</v>
       </c>
       <c r="EF201" s="1">
-        <v>-0.23519755899906158</v>
+        <v>-0.23519755899906159</v>
       </c>
       <c r="EG201" s="1">
         <v>0.1011020764708519</v>
@@ -87252,7 +87252,7 @@
         <v>-0.98706132173538208</v>
       </c>
       <c r="I202" s="1">
-        <v>-1.0604019165039062</v>
+        <v>-1.0604019165039063</v>
       </c>
       <c r="J202" s="1">
         <v>-0.00076656998135149479</v>
@@ -87303,7 +87303,7 @@
         <v>6</v>
       </c>
       <c r="Z202" s="1">
-        <v>0.86763679981231689</v>
+        <v>0.8676367998123169</v>
       </c>
       <c r="AA202" s="1">
         <v>1.2421271800994873</v>
@@ -87405,7 +87405,7 @@
         <v>-0.98706132173538208</v>
       </c>
       <c r="BJ202" s="1">
-        <v>-1.0604019165039062</v>
+        <v>-1.0604019165039063</v>
       </c>
       <c r="BK202" s="1">
         <v>1</v>
@@ -87525,7 +87525,7 @@
         <v>-0.98706132173538208</v>
       </c>
       <c r="CX202" s="1">
-        <v>-1.0604019165039062</v>
+        <v>-1.0604019165039063</v>
       </c>
       <c r="CY202" s="1">
         <v>0.084867216646671295</v>
@@ -87597,7 +87597,7 @@
         <v>1</v>
       </c>
       <c r="DV202" s="1">
-        <v>-1.0604019165039062</v>
+        <v>-1.0604019165039063</v>
       </c>
       <c r="DW202" s="1">
         <v>6</v>
@@ -87749,7 +87749,7 @@
         <v>-0.11201474815607071</v>
       </c>
       <c r="AG203" s="1">
-        <v>-0.24844846129417419</v>
+        <v>-0.2484484612941742</v>
       </c>
       <c r="AH203" s="1">
         <v>0.85275065898895264</v>
@@ -87797,7 +87797,7 @@
         <v>-0.12783670425415039</v>
       </c>
       <c r="AW203" s="1">
-        <v>-0.25018796324729919</v>
+        <v>-0.2501879632472992</v>
       </c>
       <c r="AX203" s="1">
         <v>0.23414294421672821</v>
@@ -88114,7 +88114,7 @@
         <v>-0.0013987959828227758</v>
       </c>
       <c r="K204" s="1">
-        <v>1.0368183851242065</v>
+        <v>1.0368183851242066</v>
       </c>
       <c r="L204" s="1">
         <v>1.3325769901275635</v>
@@ -88195,10 +88195,10 @@
         <v>0.54222613573074341</v>
       </c>
       <c r="AL204" s="1">
-        <v>2.9664983749389648</v>
+        <v>2.9664983749389649</v>
       </c>
       <c r="AM204" s="1">
-        <v>-2.1363894939422607</v>
+        <v>-2.1363894939422608</v>
       </c>
       <c r="AN204" s="1">
         <v>-4.4852180480957031</v>
@@ -88219,10 +88219,10 @@
         <v>0.54222613573074341</v>
       </c>
       <c r="AT204" s="1">
-        <v>2.9664983749389648</v>
+        <v>2.9664983749389649</v>
       </c>
       <c r="AU204" s="1">
-        <v>-2.1363894939422607</v>
+        <v>-2.1363894939422608</v>
       </c>
       <c r="AV204" s="1">
         <v>-4.851649284362793</v>
@@ -88378,7 +88378,7 @@
         <v>216</v>
       </c>
       <c r="CU204" s="1">
-        <v>1.0368183851242065</v>
+        <v>1.0368183851242066</v>
       </c>
       <c r="CV204" s="1">
         <v>1.3325769901275635</v>
@@ -88411,7 +88411,7 @@
         <v>1</v>
       </c>
       <c r="DF204" s="1">
-        <v>1.0368183851242065</v>
+        <v>1.0368183851242066</v>
       </c>
       <c r="DG204" s="1">
         <v>1</v>
@@ -88441,7 +88441,7 @@
         <v>1</v>
       </c>
       <c r="DP204" s="1">
-        <v>1.0368183851242065</v>
+        <v>1.0368183851242066</v>
       </c>
       <c r="DQ204" s="1">
         <v>1</v>
@@ -88976,7 +88976,7 @@
         <v>8.0900002279442175e-20</v>
       </c>
       <c r="K206" s="1">
-        <v>0.5956847071647644</v>
+        <v>0.59568470716476441</v>
       </c>
       <c r="L206" s="1">
         <v>0.32146599888801575</v>
@@ -89033,7 +89033,7 @@
         <v>-1.9376546144485474</v>
       </c>
       <c r="AD206" s="1">
-        <v>1.3745193481445312</v>
+        <v>1.3745193481445313</v>
       </c>
       <c r="AE206" s="1">
         <v>-0.50601285696029663</v>
@@ -89240,7 +89240,7 @@
         <v>194</v>
       </c>
       <c r="CU206" s="1">
-        <v>0.5956847071647644</v>
+        <v>0.59568470716476441</v>
       </c>
       <c r="CV206" s="1">
         <v>0.32146599888801575</v>
@@ -89273,7 +89273,7 @@
         <v>1</v>
       </c>
       <c r="DF206" s="1">
-        <v>0.5956847071647644</v>
+        <v>0.59568470716476441</v>
       </c>
       <c r="DG206" s="1">
         <v>1</v>
@@ -89303,7 +89303,7 @@
         <v>1</v>
       </c>
       <c r="DP206" s="1">
-        <v>0.5956847071647644</v>
+        <v>0.59568470716476441</v>
       </c>
       <c r="DQ206" s="1">
         <v>1</v>
@@ -89479,7 +89479,7 @@
         <v>0.6950567364692688</v>
       </c>
       <c r="AI207" s="1">
-        <v>4.2551641464233398</v>
+        <v>4.2551641464233399</v>
       </c>
       <c r="AJ207" s="1">
         <v>-2.6453366279602051</v>
@@ -89782,7 +89782,7 @@
         <v>-1.3188142776489258</v>
       </c>
       <c r="EF207" s="1">
-        <v>-0.21541395783424377</v>
+        <v>-0.21541395783424378</v>
       </c>
       <c r="EG207" s="1">
         <v>0.16333912312984467</v>
@@ -89832,7 +89832,7 @@
         <v>-0.93558591604232788</v>
       </c>
       <c r="I208" s="1">
-        <v>-1.1760480403900146</v>
+        <v>-1.1760480403900147</v>
       </c>
       <c r="J208" s="1">
         <v>-0.0050049088895320892</v>
@@ -89847,10 +89847,10 @@
         <v>0.05369766429066658</v>
       </c>
       <c r="N208" s="1">
-        <v>0.0048082303255796432</v>
+        <v>0.0048082303255796433</v>
       </c>
       <c r="O208" s="1">
-        <v>0.22009038925170898</v>
+        <v>0.22009038925170899</v>
       </c>
       <c r="P208" s="1">
         <v>43</v>
@@ -89991,7 +89991,7 @@
         <v>-0.93558591604232788</v>
       </c>
       <c r="BJ208" s="1">
-        <v>-1.1760480403900146</v>
+        <v>-1.1760480403900147</v>
       </c>
       <c r="BK208" s="1">
         <v>0.5</v>
@@ -90111,10 +90111,10 @@
         <v>-0.93558591604232788</v>
       </c>
       <c r="CX208" s="1">
-        <v>-1.1760480403900146</v>
+        <v>-1.1760480403900147</v>
       </c>
       <c r="CY208" s="1">
-        <v>0.22009038925170898</v>
+        <v>0.22009038925170899</v>
       </c>
       <c r="CZ208" s="1">
         <v>1</v>
@@ -90153,13 +90153,13 @@
         <v>12</v>
       </c>
       <c r="DL208" s="1">
-        <v>0.0048082303255796432</v>
+        <v>0.0048082303255796433</v>
       </c>
       <c r="DM208" s="1">
         <v>4</v>
       </c>
       <c r="DN208" s="1">
-        <v>0.22009038925170898</v>
+        <v>0.22009038925170899</v>
       </c>
       <c r="DO208" s="1">
         <v>1</v>
@@ -90183,13 +90183,13 @@
         <v>1</v>
       </c>
       <c r="DV208" s="1">
-        <v>-1.1760480403900146</v>
+        <v>-1.1760480403900147</v>
       </c>
       <c r="DW208" s="1">
         <v>4</v>
       </c>
       <c r="DX208" s="1">
-        <v>0.22009038925170898</v>
+        <v>0.22009038925170899</v>
       </c>
       <c r="DY208" s="1">
         <v>-2.0090968608856201</v>
@@ -90254,7 +90254,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="1">
-        <v>-0.070968389511108398</v>
+        <v>-0.070968389511108399</v>
       </c>
       <c r="G209" s="1">
         <v>-0.014198610559105873</v>
@@ -90314,7 +90314,7 @@
         <v>2</v>
       </c>
       <c r="Z209" s="1">
-        <v>1.8192057609558105</v>
+        <v>1.8192057609558106</v>
       </c>
       <c r="AA209" s="1">
         <v>0.33501589298248291</v>
@@ -90338,7 +90338,7 @@
         <v>-1.3172365427017212</v>
       </c>
       <c r="AH209" s="1">
-        <v>1.8192057609558105</v>
+        <v>1.8192057609558106</v>
       </c>
       <c r="AI209" s="1">
         <v>0.33501589298248291</v>
@@ -90362,7 +90362,7 @@
         <v>-1.3172365427017212</v>
       </c>
       <c r="AP209" s="1">
-        <v>1.8192057609558105</v>
+        <v>1.8192057609558106</v>
       </c>
       <c r="AQ209" s="1">
         <v>0.33501589298248291</v>
@@ -90691,7 +90691,7 @@
         <v>0.00064720300724729896</v>
       </c>
       <c r="H210" s="1">
-        <v>-0.98221051692962646</v>
+        <v>-0.98221051692962647</v>
       </c>
       <c r="I210" s="1">
         <v>-1.0155872106552124</v>
@@ -90850,7 +90850,7 @@
         <v>1</v>
       </c>
       <c r="BI210" s="1">
-        <v>-0.98221051692962646</v>
+        <v>-0.98221051692962647</v>
       </c>
       <c r="BJ210" s="1">
         <v>-1.0155872106552124</v>
@@ -90970,7 +90970,7 @@
         <v>0.29092735052108765</v>
       </c>
       <c r="CW210" s="1">
-        <v>-0.98221051692962646</v>
+        <v>-0.98221051692962647</v>
       </c>
       <c r="CX210" s="1">
         <v>-1.0155872106552124</v>
@@ -91039,7 +91039,7 @@
         <v>1</v>
       </c>
       <c r="DT210" s="1">
-        <v>-0.98221051692962646</v>
+        <v>-0.98221051692962647</v>
       </c>
       <c r="DU210" s="1">
         <v>1</v>
@@ -91182,7 +91182,7 @@
         <v>0.45182609558105469</v>
       </c>
       <c r="AB211" s="1">
-        <v>-3.5031049251556396</v>
+        <v>-3.5031049251556397</v>
       </c>
       <c r="AC211" s="1">
         <v>-3.3191845417022705</v>
@@ -91194,7 +91194,7 @@
         <v>-0.14215093851089478</v>
       </c>
       <c r="AF211" s="1">
-        <v>-0.12500408291816711</v>
+        <v>-0.12500408291816712</v>
       </c>
       <c r="AG211" s="1">
         <v>-0.12627199292182922</v>
@@ -91206,7 +91206,7 @@
         <v>0.45182609558105469</v>
       </c>
       <c r="AJ211" s="1">
-        <v>-3.5031049251556396</v>
+        <v>-3.5031049251556397</v>
       </c>
       <c r="AK211" s="1">
         <v>-2.65055251121521</v>
@@ -91218,7 +91218,7 @@
         <v>-0.33865177631378174</v>
       </c>
       <c r="AN211" s="1">
-        <v>-0.12500408291816711</v>
+        <v>-0.12500408291816712</v>
       </c>
       <c r="AO211" s="1">
         <v>-0.32391905784606934</v>
@@ -91230,7 +91230,7 @@
         <v>0.45182609558105469</v>
       </c>
       <c r="AR211" s="1">
-        <v>-3.5031049251556396</v>
+        <v>-3.5031049251556397</v>
       </c>
       <c r="AS211" s="1">
         <v>-1.982169508934021</v>
@@ -91242,7 +91242,7 @@
         <v>-0.51759082078933716</v>
       </c>
       <c r="AV211" s="1">
-        <v>-0.12500408291816711</v>
+        <v>-0.12500408291816712</v>
       </c>
       <c r="AW211" s="1">
         <v>-0.50333750247955322</v>
@@ -91931,7 +91931,7 @@
         <v>-0.35428544878959656</v>
       </c>
       <c r="ED212" s="1">
-        <v>0.58874803781509399</v>
+        <v>0.588748037815094</v>
       </c>
       <c r="EE212" s="1">
         <v>-0.7717779278755188</v>
@@ -91993,7 +91993,7 @@
         <v>-0.0058136880397796631</v>
       </c>
       <c r="K213" s="1">
-        <v>0.25814205408096313</v>
+        <v>0.25814205408096314</v>
       </c>
       <c r="L213" s="1">
         <v>0.45726555585861206</v>
@@ -92056,7 +92056,7 @@
         <v>-1.0770363807678223</v>
       </c>
       <c r="AF213" s="1">
-        <v>-0.97013694047927856</v>
+        <v>-0.97013694047927857</v>
       </c>
       <c r="AG213" s="1">
         <v>-0.97876286506652832</v>
@@ -92080,7 +92080,7 @@
         <v>-5.0824451446533203</v>
       </c>
       <c r="AN213" s="1">
-        <v>-0.97013694047927856</v>
+        <v>-0.97013694047927857</v>
       </c>
       <c r="AO213" s="1">
         <v>-4.9808402061462402</v>
@@ -92104,7 +92104,7 @@
         <v>-48.785610198974609</v>
       </c>
       <c r="AV213" s="1">
-        <v>-0.97013694047927856</v>
+        <v>-0.97013694047927857</v>
       </c>
       <c r="AW213" s="1">
         <v>-48.677135467529297</v>
@@ -92194,7 +92194,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA213" s="1">
         <v>0</v>
@@ -92212,10 +92212,10 @@
         <v>0</v>
       </c>
       <c r="CF213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH213" s="1">
         <v>0</v>
@@ -92224,10 +92224,10 @@
         <v>0</v>
       </c>
       <c r="CJ213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL213" s="1">
         <v>0</v>
@@ -92257,7 +92257,7 @@
         <v>176</v>
       </c>
       <c r="CU213" s="1">
-        <v>0.25814205408096313</v>
+        <v>0.25814205408096314</v>
       </c>
       <c r="CV213" s="1">
         <v>0.45726555585861206</v>
@@ -92290,7 +92290,7 @@
         <v>14</v>
       </c>
       <c r="DF213" s="1">
-        <v>0.25814205408096313</v>
+        <v>0.25814205408096314</v>
       </c>
       <c r="DG213" s="1">
         <v>5</v>
@@ -92320,7 +92320,7 @@
         <v>14</v>
       </c>
       <c r="DP213" s="1">
-        <v>0.25814205408096313</v>
+        <v>0.25814205408096314</v>
       </c>
       <c r="DQ213" s="1">
         <v>33</v>
@@ -92362,7 +92362,7 @@
         <v>-5.8208799362182617</v>
       </c>
       <c r="ED213" s="1">
-        <v>1.9381484985351562</v>
+        <v>1.9381484985351563</v>
       </c>
       <c r="EE213" s="1">
         <v>-3.0033199787139893</v>
@@ -92643,10 +92643,10 @@
         <v>1</v>
       </c>
       <c r="CF214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH214" s="1">
         <v>0</v>
@@ -92655,7 +92655,7 @@
         <v>0</v>
       </c>
       <c r="CJ214" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK214" s="1">
         <v>0</v>
@@ -92805,13 +92805,13 @@
         <v>0.27371928095817566</v>
       </c>
       <c r="EH214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI214" s="1">
         <v>1</v>
       </c>
       <c r="EJ214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK214" s="1">
         <v>0</v>
@@ -92861,7 +92861,7 @@
         <v>0.28184351325035095</v>
       </c>
       <c r="M215" s="1">
-        <v>0.15813788771629333</v>
+        <v>0.15813788771629334</v>
       </c>
       <c r="N215" s="1">
         <v>0.10075335204601288</v>
@@ -93164,7 +93164,7 @@
         <v>9</v>
       </c>
       <c r="DJ215" s="1">
-        <v>0.15813788771629333</v>
+        <v>0.15813788771629334</v>
       </c>
       <c r="DK215" s="1">
         <v>11</v>
@@ -94113,7 +94113,7 @@
         <v>1</v>
       </c>
       <c r="EM217" s="1">
-        <v>2.8332133293151855</v>
+        <v>2.8332133293151856</v>
       </c>
     </row>
     <row r="218">
@@ -94142,7 +94142,7 @@
         <v>-0.96489971876144409</v>
       </c>
       <c r="I218" s="1">
-        <v>-1.4684362411499023</v>
+        <v>-1.4684362411499024</v>
       </c>
       <c r="J218" s="1">
         <v>-1.249999968422344e-06</v>
@@ -94211,7 +94211,7 @@
         <v>-0.36966189742088318</v>
       </c>
       <c r="AF218" s="1">
-        <v>-0.071527875959873199</v>
+        <v>-0.0715278759598732</v>
       </c>
       <c r="AG218" s="1">
         <v>-0.36966055631637573</v>
@@ -94301,7 +94301,7 @@
         <v>-0.96489971876144409</v>
       </c>
       <c r="BJ218" s="1">
-        <v>-1.4684362411499023</v>
+        <v>-1.4684362411499024</v>
       </c>
       <c r="BK218" s="1">
         <v>0</v>
@@ -94421,7 +94421,7 @@
         <v>-0.96489971876144409</v>
       </c>
       <c r="CX218" s="1">
-        <v>-1.4684362411499023</v>
+        <v>-1.4684362411499024</v>
       </c>
       <c r="CY218" s="1">
         <v>0.27726563811302185</v>
@@ -94493,7 +94493,7 @@
         <v>1</v>
       </c>
       <c r="DV218" s="1">
-        <v>-1.4684362411499023</v>
+        <v>-1.4684362411499024</v>
       </c>
       <c r="DW218" s="1">
         <v>4</v>
@@ -94627,7 +94627,7 @@
         <v>2.7464277744293213</v>
       </c>
       <c r="AA219" s="1">
-        <v>3.6021039485931396</v>
+        <v>3.6021039485931397</v>
       </c>
       <c r="AB219" s="1">
         <v>-3.2194974422454834</v>
@@ -94798,10 +94798,10 @@
         <v>0</v>
       </c>
       <c r="CF219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH219" s="1">
         <v>0</v>
@@ -94810,7 +94810,7 @@
         <v>0</v>
       </c>
       <c r="CJ219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK219" s="1">
         <v>0</v>
@@ -94960,7 +94960,7 @@
         <v>2.8063559532165527</v>
       </c>
       <c r="EH219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI219" s="1">
         <v>0</v>
@@ -94995,7 +94995,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="1">
-        <v>-0.0062445900402963161</v>
+        <v>-0.0062445900402963162</v>
       </c>
       <c r="G220" s="1">
         <v>-0.0040259878151118755</v>
@@ -95013,7 +95013,7 @@
         <v>0.16783149540424347</v>
       </c>
       <c r="L220" s="1">
-        <v>0.31949648261070251</v>
+        <v>0.31949648261070252</v>
       </c>
       <c r="M220" s="1">
         <v>0.047339066863059998</v>
@@ -95064,7 +95064,7 @@
         <v>-2.3411350250244141</v>
       </c>
       <c r="AC220" s="1">
-        <v>-2.2315742969512939</v>
+        <v>-2.231574296951294</v>
       </c>
       <c r="AD220" s="1">
         <v>1.3324505090713501</v>
@@ -95088,7 +95088,7 @@
         <v>-2.3411350250244141</v>
       </c>
       <c r="AK220" s="1">
-        <v>-2.2315742969512939</v>
+        <v>-2.231574296951294</v>
       </c>
       <c r="AL220" s="1">
         <v>1.3324505090713501</v>
@@ -95112,7 +95112,7 @@
         <v>-2.3411350250244141</v>
       </c>
       <c r="AS220" s="1">
-        <v>-2.2315742969512939</v>
+        <v>-2.231574296951294</v>
       </c>
       <c r="AT220" s="1">
         <v>1.3324505090713501</v>
@@ -95277,7 +95277,7 @@
         <v>0.16783149540424347</v>
       </c>
       <c r="CV220" s="1">
-        <v>0.31949648261070251</v>
+        <v>0.31949648261070252</v>
       </c>
       <c r="CW220" s="1">
         <v>-0.96287029981613159</v>
@@ -95313,7 +95313,7 @@
         <v>3</v>
       </c>
       <c r="DH220" s="1">
-        <v>0.31949648261070251</v>
+        <v>0.31949648261070252</v>
       </c>
       <c r="DI220" s="1">
         <v>10</v>
@@ -95343,7 +95343,7 @@
         <v>3</v>
       </c>
       <c r="DR220" s="1">
-        <v>0.31949648261070251</v>
+        <v>0.31949648261070252</v>
       </c>
       <c r="DS220" s="1">
         <v>1</v>
@@ -95364,7 +95364,7 @@
         <v>0.15628702938556671</v>
       </c>
       <c r="DY220" s="1">
-        <v>-1.1448273658752441</v>
+        <v>-1.1448273658752442</v>
       </c>
       <c r="DZ220" s="1">
         <v>-0.59768545627593994</v>
@@ -95373,7 +95373,7 @@
         <v>0.52207469940185547</v>
       </c>
       <c r="EB220" s="1">
-        <v>-1.1448273658752441</v>
+        <v>-1.1448273658752442</v>
       </c>
       <c r="EC220" s="1">
         <v>-0.59768545627593994</v>
@@ -95382,7 +95382,7 @@
         <v>0.52207469940185547</v>
       </c>
       <c r="EE220" s="1">
-        <v>-1.1448273658752441</v>
+        <v>-1.1448273658752442</v>
       </c>
       <c r="EF220" s="1">
         <v>-0.59768545627593994</v>
@@ -95860,7 +95860,7 @@
         <v>-0.0039827320724725723</v>
       </c>
       <c r="G222" s="1">
-        <v>-0.0004887229879386723</v>
+        <v>-0.00048872298793867231</v>
       </c>
       <c r="H222" s="1">
         <v>-0.97359079122543335</v>
@@ -95959,7 +95959,7 @@
         <v>-0.29652324318885803</v>
       </c>
       <c r="AN222" s="1">
-        <v>-0.55041497945785522</v>
+        <v>-0.55041497945785523</v>
       </c>
       <c r="AO222" s="1">
         <v>-0.29983463883399963</v>
@@ -95989,7 +95989,7 @@
         <v>-0.29983463883399963</v>
       </c>
       <c r="AX222" s="1">
-        <v>5.3628616333007812</v>
+        <v>5.3628616333007813</v>
       </c>
       <c r="AY222" s="1">
         <v>10.322935104370117</v>
